--- a/restricted_QAQC/documentation/DataTemplate_examples.xlsx
+++ b/restricted_QAQC/documentation/DataTemplate_examples.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theRoeRaymonds/Dropbox/Work/DataVizProjects/HBEF/shiny/restricted_QAQC/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CTRoeRaymond/Dropbox/WORK/DataVizProjects/HBEF/shiny/restricted_QAQC/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1453C91A-20AB-604F-BAE6-F450EB73138F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2322A71-D96D-6447-906D-5B8F59E6320F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="440" windowWidth="25240" windowHeight="13940"/>
+    <workbookView xWindow="360" yWindow="1120" windowWidth="25240" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
     <sheet name="chemistry" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="862">
   <si>
     <t>uniqueID</t>
   </si>
@@ -149,18 +149,12 @@
     <t>HBK</t>
   </si>
   <si>
-    <t>ML-70 _20171031_0630</t>
-  </si>
-  <si>
     <t xml:space="preserve">ML-70 </t>
   </si>
   <si>
     <t>~8.5" Heavy precip.(~3.5" T.S. Phillipe) OTB!, Post heavy rain. Stream now cleared of leaves for the first time this fall. Blownout / High flows!</t>
   </si>
   <si>
-    <t>RG22_20171031_1005</t>
-  </si>
-  <si>
     <t>RG22</t>
   </si>
   <si>
@@ -2598,12 +2592,30 @@
   </si>
   <si>
     <t>datetime</t>
+  </si>
+  <si>
+    <t>au400</t>
+  </si>
+  <si>
+    <t>au254</t>
+  </si>
+  <si>
+    <t>au275</t>
+  </si>
+  <si>
+    <t>au295</t>
+  </si>
+  <si>
+    <t>au350</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -2921,7 +2933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3036,6 +3048,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3081,11 +3121,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3440,17 +3490,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3505,10 +3556,26 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>18</v>
+      <c r="S1" t="s">
+        <v>858</v>
+      </c>
+      <c r="T1" t="s">
+        <v>859</v>
+      </c>
+      <c r="U1" t="s">
+        <v>860</v>
+      </c>
+      <c r="V1" t="s">
+        <v>861</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="str">
+        <f>CONCATENATE(B2, "_", TEXT(C2, "yyyymmdd"), "_", TEXT(D2,"[hh]mm"))</f>
+        <v>W1_20171031_0930</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -3520,6 +3587,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E2">
+        <f>IF(MONTH(C2)&gt;=6,YEAR(C2),YEAR(C2)-1)</f>
         <v>2017</v>
       </c>
       <c r="F2">
@@ -3561,10 +3629,26 @@
       <c r="R2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>24</v>
+      <c r="S2" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T2" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U2" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V2" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W2" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A15" si="0">CONCATENATE(B3, "_", TEXT(C3, "yyyymmdd"), "_", TEXT(D3,"[hh]mm"))</f>
+        <v>W2_20171031_0900</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -3576,6 +3660,7 @@
         <v>0.375</v>
       </c>
       <c r="E3">
+        <f t="shared" ref="E3:E15" si="1">IF(MONTH(C3)&gt;=6,YEAR(C3),YEAR(C3)-1)</f>
         <v>2017</v>
       </c>
       <c r="F3">
@@ -3617,10 +3702,26 @@
       <c r="R3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>26</v>
+      <c r="S3" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T3" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="V3" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W3" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>W3_20171031_0905</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -3632,6 +3733,7 @@
         <v>0.37847222222222227</v>
       </c>
       <c r="E4">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F4">
@@ -3673,10 +3775,26 @@
       <c r="R4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>28</v>
+      <c r="S4" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="V4" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W4" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>W4_20171031_0945</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -3688,6 +3806,7 @@
         <v>0.40625</v>
       </c>
       <c r="E5">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F5">
@@ -3729,10 +3848,26 @@
       <c r="R5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>30</v>
+      <c r="S5" s="4">
+        <v>-0.11</v>
+      </c>
+      <c r="T5" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="U5" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="V5" s="5">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="W5" s="7">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>W5_20171031_0850</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -3744,6 +3879,7 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F6">
@@ -3785,10 +3921,26 @@
       <c r="R6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>32</v>
+      <c r="S6" s="4">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="V6" s="5">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="W6" s="7">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>W6_20171031_0825</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -3800,6 +3952,7 @@
         <v>0.35069444444444442</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F7">
@@ -3841,10 +3994,26 @@
       <c r="R7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>34</v>
+      <c r="S7" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>W7_20171031_0740</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -3856,6 +4025,7 @@
         <v>0.31944444444444448</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F8">
@@ -3897,10 +4067,26 @@
       <c r="R8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>36</v>
+      <c r="S8" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="T8" s="4">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="U8" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="V8" s="5">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="W8" s="7">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>W8_20171031_0730</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -3912,6 +4098,7 @@
         <v>0.3125</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F9">
@@ -3953,10 +4140,26 @@
       <c r="R9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>38</v>
+      <c r="S9" s="4">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="T9" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="U9" s="4">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="V9" s="5">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="W9" s="7">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>W9_20171031_0710</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -3968,6 +4171,7 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F10">
@@ -4009,10 +4213,26 @@
       <c r="R10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>40</v>
+      <c r="S10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U10" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V10" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W10" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>HBK_20171031_0635</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -4024,6 +4244,7 @@
         <v>0.27430555555555552</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F11">
@@ -4065,13 +4286,29 @@
       <c r="R11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
+      <c r="S11" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="T11" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="U11" s="4">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="V11" s="5">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="W11" s="7">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>ML-70 _20171031_0630</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
       </c>
       <c r="C12" s="1">
         <v>43039</v>
@@ -4080,6 +4317,7 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="E12">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F12">
@@ -4116,18 +4354,34 @@
         <v>21</v>
       </c>
       <c r="Q12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>45</v>
+      <c r="S12" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="U12" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V12" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="W12" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>RG22_20171031_1005</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>43039</v>
@@ -4136,6 +4390,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="E13">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F13">
@@ -4172,18 +4427,34 @@
         <v>21</v>
       </c>
       <c r="Q13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>48</v>
+      <c r="S13">
+        <v>-2</v>
+      </c>
+      <c r="T13">
+        <v>-2</v>
+      </c>
+      <c r="U13">
+        <v>-2</v>
+      </c>
+      <c r="V13">
+        <v>-2</v>
+      </c>
+      <c r="W13" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>RG11_20171031_0830</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>43039</v>
@@ -4192,6 +4463,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E14">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F14">
@@ -4228,18 +4500,34 @@
         <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>50</v>
+      <c r="S14">
+        <v>-2</v>
+      </c>
+      <c r="T14">
+        <v>-2</v>
+      </c>
+      <c r="U14">
+        <v>-2</v>
+      </c>
+      <c r="V14">
+        <v>-2</v>
+      </c>
+      <c r="W14" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>RG23_20171031_0720</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1">
         <v>43039</v>
@@ -4248,6 +4536,7 @@
         <v>0.30555555555555552</v>
       </c>
       <c r="E15">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="F15">
@@ -4284,10 +4573,25 @@
         <v>21</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s">
         <v>23</v>
+      </c>
+      <c r="S15">
+        <v>-2</v>
+      </c>
+      <c r="T15">
+        <v>-2</v>
+      </c>
+      <c r="U15">
+        <v>-2</v>
+      </c>
+      <c r="V15">
+        <v>-2</v>
+      </c>
+      <c r="W15" s="6">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -4296,10 +4600,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC793"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4315,90 +4621,90 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="M1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="N1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="O1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="P1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="Q1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="R1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="T1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="U1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="V1" t="s">
         <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="X1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="Y1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="Z1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AA1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AB1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AC1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -4487,7 +4793,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -4576,7 +4882,7 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -4665,7 +4971,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -4754,7 +5060,7 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -4843,7 +5149,7 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -4932,7 +5238,7 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -5021,7 +5327,7 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B9">
         <v>2017</v>
@@ -5110,7 +5416,7 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -5199,7 +5505,7 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -5288,7 +5594,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B12">
         <v>2017</v>
@@ -5377,7 +5683,7 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -5466,7 +5772,7 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -5555,7 +5861,7 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B15">
         <v>2017</v>
@@ -5644,7 +5950,7 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -5733,7 +6039,7 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B17">
         <v>2017</v>
@@ -5822,7 +6128,7 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B18">
         <v>2017</v>
@@ -5911,7 +6217,7 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -6000,7 +6306,7 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -6089,7 +6395,7 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -6178,7 +6484,7 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B22">
         <v>2017</v>
@@ -6267,7 +6573,7 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B23">
         <v>2017</v>
@@ -6356,7 +6662,7 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -6445,7 +6751,7 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -6534,7 +6840,7 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -6623,7 +6929,7 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B27">
         <v>2017</v>
@@ -6712,7 +7018,7 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B28">
         <v>2017</v>
@@ -6801,7 +7107,7 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B29">
         <v>2017</v>
@@ -6890,7 +7196,7 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -6979,7 +7285,7 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -7068,7 +7374,7 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B32">
         <v>2017</v>
@@ -7157,7 +7463,7 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B33">
         <v>2017</v>
@@ -7246,7 +7552,7 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B34">
         <v>2017</v>
@@ -7335,7 +7641,7 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B35">
         <v>2017</v>
@@ -7424,7 +7730,7 @@
     </row>
     <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B36">
         <v>2017</v>
@@ -7513,7 +7819,7 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B37">
         <v>2017</v>
@@ -7602,7 +7908,7 @@
     </row>
     <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B38">
         <v>2017</v>
@@ -7691,7 +7997,7 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B39">
         <v>2017</v>
@@ -7780,7 +8086,7 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B40">
         <v>2017</v>
@@ -7869,7 +8175,7 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B41">
         <v>2017</v>
@@ -7958,7 +8264,7 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B42">
         <v>2017</v>
@@ -8047,7 +8353,7 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B43">
         <v>2017</v>
@@ -8136,7 +8442,7 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B44">
         <v>2017</v>
@@ -8225,7 +8531,7 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B45">
         <v>2017</v>
@@ -8314,7 +8620,7 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B46">
         <v>2017</v>
@@ -8403,7 +8709,7 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B47">
         <v>2017</v>
@@ -8492,7 +8798,7 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B48">
         <v>2017</v>
@@ -8581,7 +8887,7 @@
     </row>
     <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B49">
         <v>2017</v>
@@ -8670,7 +8976,7 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B50">
         <v>2017</v>
@@ -8759,7 +9065,7 @@
     </row>
     <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B51">
         <v>2017</v>
@@ -8848,7 +9154,7 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B52">
         <v>2017</v>
@@ -8937,7 +9243,7 @@
     </row>
     <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B53">
         <v>2017</v>
@@ -9026,7 +9332,7 @@
     </row>
     <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B54">
         <v>2017</v>
@@ -9115,7 +9421,7 @@
     </row>
     <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B55">
         <v>2017</v>
@@ -9204,7 +9510,7 @@
     </row>
     <row r="56" spans="1:29">
       <c r="A56" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B56">
         <v>2017</v>
@@ -9293,7 +9599,7 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B57">
         <v>2017</v>
@@ -9382,7 +9688,7 @@
     </row>
     <row r="58" spans="1:29">
       <c r="A58" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B58">
         <v>2017</v>
@@ -9471,7 +9777,7 @@
     </row>
     <row r="59" spans="1:29">
       <c r="A59" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B59">
         <v>2017</v>
@@ -9560,7 +9866,7 @@
     </row>
     <row r="60" spans="1:29">
       <c r="A60" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B60">
         <v>2017</v>
@@ -9649,7 +9955,7 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -9738,7 +10044,7 @@
     </row>
     <row r="62" spans="1:29">
       <c r="A62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B62">
         <v>2017</v>
@@ -9827,7 +10133,7 @@
     </row>
     <row r="63" spans="1:29">
       <c r="A63" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B63">
         <v>2017</v>
@@ -9916,7 +10222,7 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B64">
         <v>2017</v>
@@ -10005,7 +10311,7 @@
     </row>
     <row r="65" spans="1:29">
       <c r="A65" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B65">
         <v>2017</v>
@@ -10094,7 +10400,7 @@
     </row>
     <row r="66" spans="1:29">
       <c r="A66" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B66">
         <v>2017</v>
@@ -10183,7 +10489,7 @@
     </row>
     <row r="67" spans="1:29">
       <c r="A67" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B67">
         <v>2017</v>
@@ -10272,7 +10578,7 @@
     </row>
     <row r="68" spans="1:29">
       <c r="A68" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B68">
         <v>2017</v>
@@ -10361,7 +10667,7 @@
     </row>
     <row r="69" spans="1:29">
       <c r="A69" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B69">
         <v>2017</v>
@@ -10450,7 +10756,7 @@
     </row>
     <row r="70" spans="1:29">
       <c r="A70" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B70">
         <v>2017</v>
@@ -10539,7 +10845,7 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B71">
         <v>2017</v>
@@ -10628,7 +10934,7 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B72">
         <v>2017</v>
@@ -10717,7 +11023,7 @@
     </row>
     <row r="73" spans="1:29">
       <c r="A73" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B73">
         <v>2017</v>
@@ -10806,7 +11112,7 @@
     </row>
     <row r="74" spans="1:29">
       <c r="A74" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B74">
         <v>2017</v>
@@ -10895,7 +11201,7 @@
     </row>
     <row r="75" spans="1:29">
       <c r="A75" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B75">
         <v>2017</v>
@@ -10984,7 +11290,7 @@
     </row>
     <row r="76" spans="1:29">
       <c r="A76" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B76">
         <v>2017</v>
@@ -11073,7 +11379,7 @@
     </row>
     <row r="77" spans="1:29">
       <c r="A77" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B77">
         <v>2017</v>
@@ -11251,7 +11557,7 @@
     </row>
     <row r="79" spans="1:29">
       <c r="A79" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B79">
         <v>2017</v>
@@ -11340,7 +11646,7 @@
     </row>
     <row r="80" spans="1:29">
       <c r="A80" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B80">
         <v>2017</v>
@@ -11429,7 +11735,7 @@
     </row>
     <row r="81" spans="1:29">
       <c r="A81" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B81">
         <v>2017</v>
@@ -11518,7 +11824,7 @@
     </row>
     <row r="82" spans="1:29">
       <c r="A82" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B82">
         <v>2017</v>
@@ -11607,7 +11913,7 @@
     </row>
     <row r="83" spans="1:29">
       <c r="A83" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B83">
         <v>2017</v>
@@ -11696,7 +12002,7 @@
     </row>
     <row r="84" spans="1:29">
       <c r="A84" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B84">
         <v>2017</v>
@@ -11785,7 +12091,7 @@
     </row>
     <row r="85" spans="1:29">
       <c r="A85" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B85">
         <v>2017</v>
@@ -11874,7 +12180,7 @@
     </row>
     <row r="86" spans="1:29">
       <c r="A86" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B86">
         <v>2017</v>
@@ -11963,7 +12269,7 @@
     </row>
     <row r="87" spans="1:29">
       <c r="A87" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B87">
         <v>2017</v>
@@ -12052,7 +12358,7 @@
     </row>
     <row r="88" spans="1:29">
       <c r="A88" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B88">
         <v>2017</v>
@@ -12141,7 +12447,7 @@
     </row>
     <row r="89" spans="1:29">
       <c r="A89" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B89">
         <v>2017</v>
@@ -12230,7 +12536,7 @@
     </row>
     <row r="90" spans="1:29">
       <c r="A90" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B90">
         <v>2017</v>
@@ -12319,7 +12625,7 @@
     </row>
     <row r="91" spans="1:29">
       <c r="A91" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B91">
         <v>2017</v>
@@ -12408,7 +12714,7 @@
     </row>
     <row r="92" spans="1:29">
       <c r="A92" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B92">
         <v>2017</v>
@@ -12497,7 +12803,7 @@
     </row>
     <row r="93" spans="1:29">
       <c r="A93" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B93">
         <v>2017</v>
@@ -12586,7 +12892,7 @@
     </row>
     <row r="94" spans="1:29">
       <c r="A94" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B94">
         <v>2017</v>
@@ -12675,7 +12981,7 @@
     </row>
     <row r="95" spans="1:29">
       <c r="A95" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B95">
         <v>2017</v>
@@ -12764,7 +13070,7 @@
     </row>
     <row r="96" spans="1:29">
       <c r="A96" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B96">
         <v>2017</v>
@@ -12853,7 +13159,7 @@
     </row>
     <row r="97" spans="1:29">
       <c r="A97" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B97">
         <v>2017</v>
@@ -12942,7 +13248,7 @@
     </row>
     <row r="98" spans="1:29">
       <c r="A98" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B98">
         <v>2017</v>
@@ -13031,7 +13337,7 @@
     </row>
     <row r="99" spans="1:29">
       <c r="A99" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B99">
         <v>2017</v>
@@ -13120,7 +13426,7 @@
     </row>
     <row r="100" spans="1:29">
       <c r="A100" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B100">
         <v>2017</v>
@@ -13209,7 +13515,7 @@
     </row>
     <row r="101" spans="1:29">
       <c r="A101" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B101">
         <v>2017</v>
@@ -13298,7 +13604,7 @@
     </row>
     <row r="102" spans="1:29">
       <c r="A102" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B102">
         <v>2017</v>
@@ -13387,7 +13693,7 @@
     </row>
     <row r="103" spans="1:29">
       <c r="A103" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B103">
         <v>2017</v>
@@ -13476,7 +13782,7 @@
     </row>
     <row r="104" spans="1:29">
       <c r="A104" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B104">
         <v>2017</v>
@@ -13565,7 +13871,7 @@
     </row>
     <row r="105" spans="1:29">
       <c r="A105" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B105">
         <v>2017</v>
@@ -13654,7 +13960,7 @@
     </row>
     <row r="106" spans="1:29">
       <c r="A106" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B106">
         <v>2017</v>
@@ -13743,7 +14049,7 @@
     </row>
     <row r="107" spans="1:29">
       <c r="A107" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B107">
         <v>2017</v>
@@ -13832,7 +14138,7 @@
     </row>
     <row r="108" spans="1:29">
       <c r="A108" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B108">
         <v>2017</v>
@@ -13921,7 +14227,7 @@
     </row>
     <row r="109" spans="1:29">
       <c r="A109" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B109">
         <v>2017</v>
@@ -14010,7 +14316,7 @@
     </row>
     <row r="110" spans="1:29">
       <c r="A110" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B110">
         <v>2017</v>
@@ -14099,7 +14405,7 @@
     </row>
     <row r="111" spans="1:29">
       <c r="A111" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B111">
         <v>2017</v>
@@ -14188,7 +14494,7 @@
     </row>
     <row r="112" spans="1:29">
       <c r="A112" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B112">
         <v>2017</v>
@@ -14277,7 +14583,7 @@
     </row>
     <row r="113" spans="1:29">
       <c r="A113" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B113">
         <v>2017</v>
@@ -14366,7 +14672,7 @@
     </row>
     <row r="114" spans="1:29">
       <c r="A114" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B114">
         <v>2017</v>
@@ -14455,7 +14761,7 @@
     </row>
     <row r="115" spans="1:29">
       <c r="A115" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B115">
         <v>2017</v>
@@ -14544,7 +14850,7 @@
     </row>
     <row r="116" spans="1:29">
       <c r="A116" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B116">
         <v>2017</v>
@@ -14633,7 +14939,7 @@
     </row>
     <row r="117" spans="1:29">
       <c r="A117" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B117">
         <v>2017</v>
@@ -14722,7 +15028,7 @@
     </row>
     <row r="118" spans="1:29">
       <c r="A118" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B118">
         <v>2017</v>
@@ -14811,7 +15117,7 @@
     </row>
     <row r="119" spans="1:29">
       <c r="A119" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B119">
         <v>2017</v>
@@ -14900,7 +15206,7 @@
     </row>
     <row r="120" spans="1:29">
       <c r="A120" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B120">
         <v>2017</v>
@@ -14989,7 +15295,7 @@
     </row>
     <row r="121" spans="1:29">
       <c r="A121" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B121">
         <v>2017</v>
@@ -15078,7 +15384,7 @@
     </row>
     <row r="122" spans="1:29">
       <c r="A122" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B122">
         <v>2017</v>
@@ -15167,7 +15473,7 @@
     </row>
     <row r="123" spans="1:29">
       <c r="A123" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B123">
         <v>2017</v>
@@ -15256,7 +15562,7 @@
     </row>
     <row r="124" spans="1:29">
       <c r="A124" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B124">
         <v>2017</v>
@@ -15345,7 +15651,7 @@
     </row>
     <row r="125" spans="1:29">
       <c r="A125" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B125">
         <v>2017</v>
@@ -15434,7 +15740,7 @@
     </row>
     <row r="126" spans="1:29">
       <c r="A126" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B126">
         <v>2017</v>
@@ -15523,7 +15829,7 @@
     </row>
     <row r="127" spans="1:29">
       <c r="A127" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B127">
         <v>2017</v>
@@ -15612,7 +15918,7 @@
     </row>
     <row r="128" spans="1:29">
       <c r="A128" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B128">
         <v>2017</v>
@@ -15701,7 +16007,7 @@
     </row>
     <row r="129" spans="1:29">
       <c r="A129" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B129">
         <v>2017</v>
@@ -15790,7 +16096,7 @@
     </row>
     <row r="130" spans="1:29">
       <c r="A130" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B130">
         <v>2017</v>
@@ -15879,7 +16185,7 @@
     </row>
     <row r="131" spans="1:29">
       <c r="A131" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B131">
         <v>2017</v>
@@ -15968,7 +16274,7 @@
     </row>
     <row r="132" spans="1:29">
       <c r="A132" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B132">
         <v>2017</v>
@@ -16057,7 +16363,7 @@
     </row>
     <row r="133" spans="1:29">
       <c r="A133" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B133">
         <v>2017</v>
@@ -16146,7 +16452,7 @@
     </row>
     <row r="134" spans="1:29">
       <c r="A134" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B134">
         <v>2017</v>
@@ -16235,7 +16541,7 @@
     </row>
     <row r="135" spans="1:29">
       <c r="A135" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B135">
         <v>2017</v>
@@ -16324,7 +16630,7 @@
     </row>
     <row r="136" spans="1:29">
       <c r="A136" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B136">
         <v>2017</v>
@@ -16413,7 +16719,7 @@
     </row>
     <row r="137" spans="1:29">
       <c r="A137" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B137">
         <v>2017</v>
@@ -16502,7 +16808,7 @@
     </row>
     <row r="138" spans="1:29">
       <c r="A138" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B138">
         <v>2017</v>
@@ -16591,7 +16897,7 @@
     </row>
     <row r="139" spans="1:29">
       <c r="A139" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B139">
         <v>2017</v>
@@ -16680,7 +16986,7 @@
     </row>
     <row r="140" spans="1:29">
       <c r="A140" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B140">
         <v>2017</v>
@@ -16769,7 +17075,7 @@
     </row>
     <row r="141" spans="1:29">
       <c r="A141" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B141">
         <v>2017</v>
@@ -16858,7 +17164,7 @@
     </row>
     <row r="142" spans="1:29">
       <c r="A142" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B142">
         <v>2017</v>
@@ -16947,7 +17253,7 @@
     </row>
     <row r="143" spans="1:29">
       <c r="A143" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B143">
         <v>2017</v>
@@ -17036,7 +17342,7 @@
     </row>
     <row r="144" spans="1:29">
       <c r="A144" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B144">
         <v>2017</v>
@@ -17125,7 +17431,7 @@
     </row>
     <row r="145" spans="1:29">
       <c r="A145" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B145">
         <v>2017</v>
@@ -17214,7 +17520,7 @@
     </row>
     <row r="146" spans="1:29">
       <c r="A146" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B146">
         <v>2017</v>
@@ -17303,7 +17609,7 @@
     </row>
     <row r="147" spans="1:29">
       <c r="A147" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B147">
         <v>2017</v>
@@ -17392,7 +17698,7 @@
     </row>
     <row r="148" spans="1:29">
       <c r="A148" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B148">
         <v>2017</v>
@@ -17481,7 +17787,7 @@
     </row>
     <row r="149" spans="1:29">
       <c r="A149" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B149">
         <v>2017</v>
@@ -17570,7 +17876,7 @@
     </row>
     <row r="150" spans="1:29">
       <c r="A150" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B150">
         <v>2017</v>
@@ -17659,7 +17965,7 @@
     </row>
     <row r="151" spans="1:29">
       <c r="A151" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B151">
         <v>2017</v>
@@ -17748,7 +18054,7 @@
     </row>
     <row r="152" spans="1:29">
       <c r="A152" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B152">
         <v>2017</v>
@@ -17837,7 +18143,7 @@
     </row>
     <row r="153" spans="1:29">
       <c r="A153" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B153">
         <v>2017</v>
@@ -17926,7 +18232,7 @@
     </row>
     <row r="154" spans="1:29">
       <c r="A154" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B154">
         <v>2017</v>
@@ -18015,7 +18321,7 @@
     </row>
     <row r="155" spans="1:29">
       <c r="A155" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B155">
         <v>2017</v>
@@ -18104,7 +18410,7 @@
     </row>
     <row r="156" spans="1:29">
       <c r="A156" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B156">
         <v>2017</v>
@@ -18193,7 +18499,7 @@
     </row>
     <row r="157" spans="1:29">
       <c r="A157" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B157">
         <v>2017</v>
@@ -18282,7 +18588,7 @@
     </row>
     <row r="158" spans="1:29">
       <c r="A158" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B158">
         <v>2017</v>
@@ -18371,7 +18677,7 @@
     </row>
     <row r="159" spans="1:29">
       <c r="A159" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B159">
         <v>2017</v>
@@ -18460,7 +18766,7 @@
     </row>
     <row r="160" spans="1:29">
       <c r="A160" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B160">
         <v>2017</v>
@@ -18549,7 +18855,7 @@
     </row>
     <row r="161" spans="1:29">
       <c r="A161" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B161">
         <v>2017</v>
@@ -18638,7 +18944,7 @@
     </row>
     <row r="162" spans="1:29">
       <c r="A162" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B162">
         <v>2017</v>
@@ -18727,7 +19033,7 @@
     </row>
     <row r="163" spans="1:29">
       <c r="A163" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B163">
         <v>2017</v>
@@ -18816,7 +19122,7 @@
     </row>
     <row r="164" spans="1:29">
       <c r="A164" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B164">
         <v>2017</v>
@@ -18905,7 +19211,7 @@
     </row>
     <row r="165" spans="1:29">
       <c r="A165" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B165">
         <v>2017</v>
@@ -18994,7 +19300,7 @@
     </row>
     <row r="166" spans="1:29">
       <c r="A166" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B166">
         <v>2017</v>
@@ -19083,7 +19389,7 @@
     </row>
     <row r="167" spans="1:29">
       <c r="A167" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B167">
         <v>2017</v>
@@ -19172,7 +19478,7 @@
     </row>
     <row r="168" spans="1:29">
       <c r="A168" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B168">
         <v>2017</v>
@@ -19261,7 +19567,7 @@
     </row>
     <row r="169" spans="1:29">
       <c r="A169" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B169">
         <v>2017</v>
@@ -19342,7 +19648,7 @@
         <v>-7.7899999999999997E-2</v>
       </c>
       <c r="AB169" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AC169" t="s">
         <v>21</v>
@@ -19350,7 +19656,7 @@
     </row>
     <row r="170" spans="1:29">
       <c r="A170" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B170">
         <v>2017</v>
@@ -19439,7 +19745,7 @@
     </row>
     <row r="171" spans="1:29">
       <c r="A171" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B171">
         <v>2017</v>
@@ -19528,7 +19834,7 @@
     </row>
     <row r="172" spans="1:29">
       <c r="A172" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B172">
         <v>2017</v>
@@ -19617,7 +19923,7 @@
     </row>
     <row r="173" spans="1:29">
       <c r="A173" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B173">
         <v>2017</v>
@@ -19706,7 +20012,7 @@
     </row>
     <row r="174" spans="1:29">
       <c r="A174" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B174">
         <v>2017</v>
@@ -19795,7 +20101,7 @@
     </row>
     <row r="175" spans="1:29">
       <c r="A175" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B175">
         <v>2017</v>
@@ -19884,7 +20190,7 @@
     </row>
     <row r="176" spans="1:29">
       <c r="A176" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B176">
         <v>2017</v>
@@ -19973,7 +20279,7 @@
     </row>
     <row r="177" spans="1:29">
       <c r="A177" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B177">
         <v>2017</v>
@@ -20062,7 +20368,7 @@
     </row>
     <row r="178" spans="1:29">
       <c r="A178" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B178">
         <v>2017</v>
@@ -20151,7 +20457,7 @@
     </row>
     <row r="179" spans="1:29">
       <c r="A179" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B179">
         <v>2017</v>
@@ -20240,7 +20546,7 @@
     </row>
     <row r="180" spans="1:29">
       <c r="A180" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B180">
         <v>2017</v>
@@ -20329,7 +20635,7 @@
     </row>
     <row r="181" spans="1:29">
       <c r="A181" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B181">
         <v>2017</v>
@@ -20418,7 +20724,7 @@
     </row>
     <row r="182" spans="1:29">
       <c r="A182" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B182">
         <v>2017</v>
@@ -20507,7 +20813,7 @@
     </row>
     <row r="183" spans="1:29">
       <c r="A183" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B183">
         <v>2017</v>
@@ -20596,7 +20902,7 @@
     </row>
     <row r="184" spans="1:29">
       <c r="A184" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B184">
         <v>2017</v>
@@ -20685,7 +20991,7 @@
     </row>
     <row r="185" spans="1:29">
       <c r="A185" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B185">
         <v>2017</v>
@@ -20774,7 +21080,7 @@
     </row>
     <row r="186" spans="1:29">
       <c r="A186" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B186">
         <v>2017</v>
@@ -20863,7 +21169,7 @@
     </row>
     <row r="187" spans="1:29">
       <c r="A187" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B187">
         <v>2017</v>
@@ -20952,7 +21258,7 @@
     </row>
     <row r="188" spans="1:29">
       <c r="A188" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B188">
         <v>2017</v>
@@ -21041,7 +21347,7 @@
     </row>
     <row r="189" spans="1:29">
       <c r="A189" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B189">
         <v>2017</v>
@@ -21130,7 +21436,7 @@
     </row>
     <row r="190" spans="1:29">
       <c r="A190" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B190">
         <v>2017</v>
@@ -21219,7 +21525,7 @@
     </row>
     <row r="191" spans="1:29">
       <c r="A191" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B191">
         <v>2017</v>
@@ -21308,7 +21614,7 @@
     </row>
     <row r="192" spans="1:29">
       <c r="A192" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B192">
         <v>2017</v>
@@ -21397,7 +21703,7 @@
     </row>
     <row r="193" spans="1:29">
       <c r="A193" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B193">
         <v>2017</v>
@@ -21486,7 +21792,7 @@
     </row>
     <row r="194" spans="1:29">
       <c r="A194" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B194">
         <v>2017</v>
@@ -21575,7 +21881,7 @@
     </row>
     <row r="195" spans="1:29">
       <c r="A195" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B195">
         <v>2017</v>
@@ -21664,7 +21970,7 @@
     </row>
     <row r="196" spans="1:29">
       <c r="A196" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B196">
         <v>2017</v>
@@ -21753,7 +22059,7 @@
     </row>
     <row r="197" spans="1:29">
       <c r="A197" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B197">
         <v>2017</v>
@@ -21842,7 +22148,7 @@
     </row>
     <row r="198" spans="1:29">
       <c r="A198" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B198">
         <v>2017</v>
@@ -21931,7 +22237,7 @@
     </row>
     <row r="199" spans="1:29">
       <c r="A199" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B199">
         <v>2017</v>
@@ -22020,7 +22326,7 @@
     </row>
     <row r="200" spans="1:29">
       <c r="A200" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B200">
         <v>2017</v>
@@ -22109,7 +22415,7 @@
     </row>
     <row r="201" spans="1:29">
       <c r="A201" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B201">
         <v>2017</v>
@@ -22198,7 +22504,7 @@
     </row>
     <row r="202" spans="1:29">
       <c r="A202" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B202">
         <v>2017</v>
@@ -22287,7 +22593,7 @@
     </row>
     <row r="203" spans="1:29">
       <c r="A203" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B203">
         <v>2017</v>
@@ -22376,7 +22682,7 @@
     </row>
     <row r="204" spans="1:29">
       <c r="A204" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B204">
         <v>2017</v>
@@ -22465,7 +22771,7 @@
     </row>
     <row r="205" spans="1:29">
       <c r="A205" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B205">
         <v>2017</v>
@@ -22554,7 +22860,7 @@
     </row>
     <row r="206" spans="1:29">
       <c r="A206" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B206">
         <v>2017</v>
@@ -22643,7 +22949,7 @@
     </row>
     <row r="207" spans="1:29">
       <c r="A207" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B207">
         <v>2017</v>
@@ -22732,7 +23038,7 @@
     </row>
     <row r="208" spans="1:29">
       <c r="A208" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B208">
         <v>2017</v>
@@ -22821,7 +23127,7 @@
     </row>
     <row r="209" spans="1:29">
       <c r="A209" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B209">
         <v>2017</v>
@@ -22910,7 +23216,7 @@
     </row>
     <row r="210" spans="1:29">
       <c r="A210" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B210">
         <v>2017</v>
@@ -22999,7 +23305,7 @@
     </row>
     <row r="211" spans="1:29">
       <c r="A211" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B211">
         <v>2017</v>
@@ -23088,7 +23394,7 @@
     </row>
     <row r="212" spans="1:29">
       <c r="A212" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B212">
         <v>2017</v>
@@ -23177,7 +23483,7 @@
     </row>
     <row r="213" spans="1:29">
       <c r="A213" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B213">
         <v>2017</v>
@@ -23266,7 +23572,7 @@
     </row>
     <row r="214" spans="1:29">
       <c r="A214" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B214">
         <v>2017</v>
@@ -23355,7 +23661,7 @@
     </row>
     <row r="215" spans="1:29">
       <c r="A215" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B215">
         <v>2017</v>
@@ -23444,7 +23750,7 @@
     </row>
     <row r="216" spans="1:29">
       <c r="A216" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B216">
         <v>2017</v>
@@ -23533,7 +23839,7 @@
     </row>
     <row r="217" spans="1:29">
       <c r="A217" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B217">
         <v>2017</v>
@@ -23622,7 +23928,7 @@
     </row>
     <row r="218" spans="1:29">
       <c r="A218" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B218">
         <v>2017</v>
@@ -23711,7 +24017,7 @@
     </row>
     <row r="219" spans="1:29">
       <c r="A219" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B219">
         <v>2017</v>
@@ -23800,7 +24106,7 @@
     </row>
     <row r="220" spans="1:29">
       <c r="A220" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B220">
         <v>2017</v>
@@ -23889,7 +24195,7 @@
     </row>
     <row r="221" spans="1:29">
       <c r="A221" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B221">
         <v>2017</v>
@@ -23978,7 +24284,7 @@
     </row>
     <row r="222" spans="1:29">
       <c r="A222" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B222">
         <v>2017</v>
@@ -24067,7 +24373,7 @@
     </row>
     <row r="223" spans="1:29">
       <c r="A223" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B223">
         <v>2017</v>
@@ -24156,7 +24462,7 @@
     </row>
     <row r="224" spans="1:29">
       <c r="A224" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B224">
         <v>2017</v>
@@ -24245,7 +24551,7 @@
     </row>
     <row r="225" spans="1:29">
       <c r="A225" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B225">
         <v>2017</v>
@@ -24334,7 +24640,7 @@
     </row>
     <row r="226" spans="1:29">
       <c r="A226" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B226">
         <v>2017</v>
@@ -24423,7 +24729,7 @@
     </row>
     <row r="227" spans="1:29">
       <c r="A227" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B227">
         <v>2017</v>
@@ -24512,7 +24818,7 @@
     </row>
     <row r="228" spans="1:29">
       <c r="A228" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B228">
         <v>2017</v>
@@ -24601,7 +24907,7 @@
     </row>
     <row r="229" spans="1:29">
       <c r="A229" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B229">
         <v>2017</v>
@@ -24690,7 +24996,7 @@
     </row>
     <row r="230" spans="1:29">
       <c r="A230" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B230">
         <v>2017</v>
@@ -24779,7 +25085,7 @@
     </row>
     <row r="231" spans="1:29">
       <c r="A231" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B231">
         <v>2017</v>
@@ -24868,7 +25174,7 @@
     </row>
     <row r="232" spans="1:29">
       <c r="A232" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B232">
         <v>2017</v>
@@ -24957,7 +25263,7 @@
     </row>
     <row r="233" spans="1:29">
       <c r="A233" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B233">
         <v>2017</v>
@@ -25046,7 +25352,7 @@
     </row>
     <row r="234" spans="1:29">
       <c r="A234" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B234">
         <v>2017</v>
@@ -25135,7 +25441,7 @@
     </row>
     <row r="235" spans="1:29">
       <c r="A235" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B235">
         <v>2017</v>
@@ -25224,7 +25530,7 @@
     </row>
     <row r="236" spans="1:29">
       <c r="A236" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B236">
         <v>2017</v>
@@ -25313,7 +25619,7 @@
     </row>
     <row r="237" spans="1:29">
       <c r="A237" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B237">
         <v>2017</v>
@@ -25402,7 +25708,7 @@
     </row>
     <row r="238" spans="1:29">
       <c r="A238" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B238">
         <v>2017</v>
@@ -25491,7 +25797,7 @@
     </row>
     <row r="239" spans="1:29">
       <c r="A239" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B239">
         <v>2017</v>
@@ -25580,7 +25886,7 @@
     </row>
     <row r="240" spans="1:29">
       <c r="A240" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B240">
         <v>2017</v>
@@ -25669,7 +25975,7 @@
     </row>
     <row r="241" spans="1:29">
       <c r="A241" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B241">
         <v>2017</v>
@@ -25758,7 +26064,7 @@
     </row>
     <row r="242" spans="1:29">
       <c r="A242" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B242">
         <v>2017</v>
@@ -25847,7 +26153,7 @@
     </row>
     <row r="243" spans="1:29">
       <c r="A243" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B243">
         <v>2017</v>
@@ -25936,7 +26242,7 @@
     </row>
     <row r="244" spans="1:29">
       <c r="A244" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B244">
         <v>2017</v>
@@ -26025,7 +26331,7 @@
     </row>
     <row r="245" spans="1:29">
       <c r="A245" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B245">
         <v>2017</v>
@@ -26114,7 +26420,7 @@
     </row>
     <row r="246" spans="1:29">
       <c r="A246" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B246">
         <v>2017</v>
@@ -26203,7 +26509,7 @@
     </row>
     <row r="247" spans="1:29">
       <c r="A247" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B247">
         <v>2017</v>
@@ -26292,7 +26598,7 @@
     </row>
     <row r="248" spans="1:29">
       <c r="A248" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B248">
         <v>2017</v>
@@ -26381,7 +26687,7 @@
     </row>
     <row r="249" spans="1:29">
       <c r="A249" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B249">
         <v>2017</v>
@@ -26470,7 +26776,7 @@
     </row>
     <row r="250" spans="1:29">
       <c r="A250" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B250">
         <v>2017</v>
@@ -26559,7 +26865,7 @@
     </row>
     <row r="251" spans="1:29">
       <c r="A251" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B251">
         <v>2017</v>
@@ -26648,7 +26954,7 @@
     </row>
     <row r="252" spans="1:29">
       <c r="A252" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B252">
         <v>2017</v>
@@ -26826,7 +27132,7 @@
     </row>
     <row r="254" spans="1:29">
       <c r="A254" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B254">
         <v>2017</v>
@@ -26915,7 +27221,7 @@
     </row>
     <row r="255" spans="1:29">
       <c r="A255" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B255">
         <v>2017</v>
@@ -27004,7 +27310,7 @@
     </row>
     <row r="256" spans="1:29">
       <c r="A256" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B256">
         <v>2017</v>
@@ -27093,7 +27399,7 @@
     </row>
     <row r="257" spans="1:29">
       <c r="A257" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B257">
         <v>2017</v>
@@ -27182,7 +27488,7 @@
     </row>
     <row r="258" spans="1:29">
       <c r="A258" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B258">
         <v>2017</v>
@@ -27271,7 +27577,7 @@
     </row>
     <row r="259" spans="1:29">
       <c r="A259" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B259">
         <v>2017</v>
@@ -27360,7 +27666,7 @@
     </row>
     <row r="260" spans="1:29">
       <c r="A260" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B260">
         <v>2017</v>
@@ -27449,7 +27755,7 @@
     </row>
     <row r="261" spans="1:29">
       <c r="A261" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B261">
         <v>2017</v>
@@ -27538,7 +27844,7 @@
     </row>
     <row r="262" spans="1:29">
       <c r="A262" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B262">
         <v>2017</v>
@@ -27627,7 +27933,7 @@
     </row>
     <row r="263" spans="1:29">
       <c r="A263" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B263">
         <v>2017</v>
@@ -27716,7 +28022,7 @@
     </row>
     <row r="264" spans="1:29">
       <c r="A264" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B264">
         <v>2017</v>
@@ -27805,7 +28111,7 @@
     </row>
     <row r="265" spans="1:29">
       <c r="A265" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B265">
         <v>2017</v>
@@ -27894,7 +28200,7 @@
     </row>
     <row r="266" spans="1:29">
       <c r="A266" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B266">
         <v>2017</v>
@@ -27983,7 +28289,7 @@
     </row>
     <row r="267" spans="1:29">
       <c r="A267" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B267">
         <v>2017</v>
@@ -28072,7 +28378,7 @@
     </row>
     <row r="268" spans="1:29">
       <c r="A268" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B268">
         <v>2017</v>
@@ -28161,7 +28467,7 @@
     </row>
     <row r="269" spans="1:29">
       <c r="A269" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B269">
         <v>2017</v>
@@ -28250,7 +28556,7 @@
     </row>
     <row r="270" spans="1:29">
       <c r="A270" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B270">
         <v>2017</v>
@@ -28339,7 +28645,7 @@
     </row>
     <row r="271" spans="1:29">
       <c r="A271" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B271">
         <v>2017</v>
@@ -28428,7 +28734,7 @@
     </row>
     <row r="272" spans="1:29">
       <c r="A272" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B272">
         <v>2017</v>
@@ -28517,7 +28823,7 @@
     </row>
     <row r="273" spans="1:29">
       <c r="A273" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B273">
         <v>2017</v>
@@ -28606,7 +28912,7 @@
     </row>
     <row r="274" spans="1:29">
       <c r="A274" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B274">
         <v>2017</v>
@@ -28695,7 +29001,7 @@
     </row>
     <row r="275" spans="1:29">
       <c r="A275" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B275">
         <v>2017</v>
@@ -28784,7 +29090,7 @@
     </row>
     <row r="276" spans="1:29">
       <c r="A276" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B276">
         <v>2017</v>
@@ -28873,7 +29179,7 @@
     </row>
     <row r="277" spans="1:29">
       <c r="A277" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B277">
         <v>2017</v>
@@ -28962,7 +29268,7 @@
     </row>
     <row r="278" spans="1:29">
       <c r="A278" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B278">
         <v>2017</v>
@@ -29051,7 +29357,7 @@
     </row>
     <row r="279" spans="1:29">
       <c r="A279" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B279">
         <v>2017</v>
@@ -29140,7 +29446,7 @@
     </row>
     <row r="280" spans="1:29">
       <c r="A280" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B280">
         <v>2017</v>
@@ -29229,7 +29535,7 @@
     </row>
     <row r="281" spans="1:29">
       <c r="A281" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B281">
         <v>2017</v>
@@ -29318,7 +29624,7 @@
     </row>
     <row r="282" spans="1:29">
       <c r="A282" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B282">
         <v>2017</v>
@@ -29407,7 +29713,7 @@
     </row>
     <row r="283" spans="1:29">
       <c r="A283" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B283">
         <v>2017</v>
@@ -29496,7 +29802,7 @@
     </row>
     <row r="284" spans="1:29">
       <c r="A284" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B284">
         <v>2017</v>
@@ -29585,7 +29891,7 @@
     </row>
     <row r="285" spans="1:29">
       <c r="A285" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B285">
         <v>2017</v>
@@ -29674,7 +29980,7 @@
     </row>
     <row r="286" spans="1:29">
       <c r="A286" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B286">
         <v>2017</v>
@@ -29763,7 +30069,7 @@
     </row>
     <row r="287" spans="1:29">
       <c r="A287" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B287">
         <v>2017</v>
@@ -29852,7 +30158,7 @@
     </row>
     <row r="288" spans="1:29">
       <c r="A288" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B288">
         <v>2017</v>
@@ -29941,7 +30247,7 @@
     </row>
     <row r="289" spans="1:29">
       <c r="A289" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B289">
         <v>2017</v>
@@ -30030,7 +30336,7 @@
     </row>
     <row r="290" spans="1:29">
       <c r="A290" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B290">
         <v>2017</v>
@@ -30119,7 +30425,7 @@
     </row>
     <row r="291" spans="1:29">
       <c r="A291" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B291">
         <v>2017</v>
@@ -30208,7 +30514,7 @@
     </row>
     <row r="292" spans="1:29">
       <c r="A292" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B292">
         <v>2017</v>
@@ -30297,7 +30603,7 @@
     </row>
     <row r="293" spans="1:29">
       <c r="A293" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B293">
         <v>2017</v>
@@ -30475,7 +30781,7 @@
     </row>
     <row r="295" spans="1:29">
       <c r="A295" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B295">
         <v>2017</v>
@@ -30564,7 +30870,7 @@
     </row>
     <row r="296" spans="1:29">
       <c r="A296" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B296">
         <v>2017</v>
@@ -30653,7 +30959,7 @@
     </row>
     <row r="297" spans="1:29">
       <c r="A297" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B297">
         <v>2017</v>
@@ -30742,7 +31048,7 @@
     </row>
     <row r="298" spans="1:29">
       <c r="A298" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B298">
         <v>2017</v>
@@ -30831,7 +31137,7 @@
     </row>
     <row r="299" spans="1:29">
       <c r="A299" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B299">
         <v>2017</v>
@@ -30920,7 +31226,7 @@
     </row>
     <row r="300" spans="1:29">
       <c r="A300" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B300">
         <v>2017</v>
@@ -31009,7 +31315,7 @@
     </row>
     <row r="301" spans="1:29">
       <c r="A301" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B301">
         <v>2017</v>
@@ -31098,7 +31404,7 @@
     </row>
     <row r="302" spans="1:29">
       <c r="A302" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B302">
         <v>2017</v>
@@ -31187,7 +31493,7 @@
     </row>
     <row r="303" spans="1:29">
       <c r="A303" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B303">
         <v>2017</v>
@@ -31276,7 +31582,7 @@
     </row>
     <row r="304" spans="1:29">
       <c r="A304" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B304">
         <v>2017</v>
@@ -31365,7 +31671,7 @@
     </row>
     <row r="305" spans="1:29">
       <c r="A305" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B305">
         <v>2017</v>
@@ -31454,7 +31760,7 @@
     </row>
     <row r="306" spans="1:29">
       <c r="A306" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B306">
         <v>2017</v>
@@ -31543,7 +31849,7 @@
     </row>
     <row r="307" spans="1:29">
       <c r="A307" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B307">
         <v>2017</v>
@@ -31632,7 +31938,7 @@
     </row>
     <row r="308" spans="1:29">
       <c r="A308" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B308">
         <v>2017</v>
@@ -31721,7 +32027,7 @@
     </row>
     <row r="309" spans="1:29">
       <c r="A309" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B309">
         <v>2017</v>
@@ -31810,7 +32116,7 @@
     </row>
     <row r="310" spans="1:29">
       <c r="A310" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B310">
         <v>2017</v>
@@ -31899,7 +32205,7 @@
     </row>
     <row r="311" spans="1:29">
       <c r="A311" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B311">
         <v>2017</v>
@@ -31988,7 +32294,7 @@
     </row>
     <row r="312" spans="1:29">
       <c r="A312" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B312">
         <v>2017</v>
@@ -32077,7 +32383,7 @@
     </row>
     <row r="313" spans="1:29">
       <c r="A313" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B313">
         <v>2017</v>
@@ -32166,7 +32472,7 @@
     </row>
     <row r="314" spans="1:29">
       <c r="A314" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B314">
         <v>2017</v>
@@ -32255,7 +32561,7 @@
     </row>
     <row r="315" spans="1:29">
       <c r="A315" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B315">
         <v>2017</v>
@@ -32344,7 +32650,7 @@
     </row>
     <row r="316" spans="1:29">
       <c r="A316" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B316">
         <v>2017</v>
@@ -32433,7 +32739,7 @@
     </row>
     <row r="317" spans="1:29">
       <c r="A317" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B317">
         <v>2017</v>
@@ -32522,7 +32828,7 @@
     </row>
     <row r="318" spans="1:29">
       <c r="A318" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B318">
         <v>2017</v>
@@ -32611,7 +32917,7 @@
     </row>
     <row r="319" spans="1:29">
       <c r="A319" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B319">
         <v>2017</v>
@@ -32700,7 +33006,7 @@
     </row>
     <row r="320" spans="1:29">
       <c r="A320" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B320">
         <v>2017</v>
@@ -32789,7 +33095,7 @@
     </row>
     <row r="321" spans="1:29">
       <c r="A321" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B321">
         <v>2017</v>
@@ -32878,7 +33184,7 @@
     </row>
     <row r="322" spans="1:29">
       <c r="A322" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B322">
         <v>2017</v>
@@ -32967,7 +33273,7 @@
     </row>
     <row r="323" spans="1:29">
       <c r="A323" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B323">
         <v>2017</v>
@@ -33056,7 +33362,7 @@
     </row>
     <row r="324" spans="1:29">
       <c r="A324" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B324">
         <v>2017</v>
@@ -33145,7 +33451,7 @@
     </row>
     <row r="325" spans="1:29">
       <c r="A325" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B325">
         <v>2017</v>
@@ -33234,7 +33540,7 @@
     </row>
     <row r="326" spans="1:29">
       <c r="A326" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B326">
         <v>2017</v>
@@ -33323,7 +33629,7 @@
     </row>
     <row r="327" spans="1:29">
       <c r="A327" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B327">
         <v>2017</v>
@@ -33412,7 +33718,7 @@
     </row>
     <row r="328" spans="1:29">
       <c r="A328" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B328">
         <v>2017</v>
@@ -33501,7 +33807,7 @@
     </row>
     <row r="329" spans="1:29">
       <c r="A329" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B329">
         <v>2017</v>
@@ -33590,7 +33896,7 @@
     </row>
     <row r="330" spans="1:29">
       <c r="A330" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B330">
         <v>2017</v>
@@ -33679,7 +33985,7 @@
     </row>
     <row r="331" spans="1:29">
       <c r="A331" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B331">
         <v>2017</v>
@@ -33768,7 +34074,7 @@
     </row>
     <row r="332" spans="1:29">
       <c r="A332" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B332">
         <v>2017</v>
@@ -33857,7 +34163,7 @@
     </row>
     <row r="333" spans="1:29">
       <c r="A333" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B333">
         <v>2017</v>
@@ -33946,7 +34252,7 @@
     </row>
     <row r="334" spans="1:29">
       <c r="A334" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B334">
         <v>2017</v>
@@ -34035,7 +34341,7 @@
     </row>
     <row r="335" spans="1:29">
       <c r="A335" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B335">
         <v>2017</v>
@@ -34124,7 +34430,7 @@
     </row>
     <row r="336" spans="1:29">
       <c r="A336" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B336">
         <v>2017</v>
@@ -34213,7 +34519,7 @@
     </row>
     <row r="337" spans="1:29">
       <c r="A337" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B337">
         <v>2017</v>
@@ -34302,7 +34608,7 @@
     </row>
     <row r="338" spans="1:29">
       <c r="A338" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B338">
         <v>2017</v>
@@ -34391,7 +34697,7 @@
     </row>
     <row r="339" spans="1:29">
       <c r="A339" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B339">
         <v>2017</v>
@@ -34480,7 +34786,7 @@
     </row>
     <row r="340" spans="1:29">
       <c r="A340" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B340">
         <v>2017</v>
@@ -34569,7 +34875,7 @@
     </row>
     <row r="341" spans="1:29">
       <c r="A341" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B341">
         <v>2017</v>
@@ -34658,7 +34964,7 @@
     </row>
     <row r="342" spans="1:29">
       <c r="A342" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B342">
         <v>2017</v>
@@ -34747,7 +35053,7 @@
     </row>
     <row r="343" spans="1:29">
       <c r="A343" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B343">
         <v>2017</v>
@@ -34836,7 +35142,7 @@
     </row>
     <row r="344" spans="1:29">
       <c r="A344" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B344">
         <v>2017</v>
@@ -34925,7 +35231,7 @@
     </row>
     <row r="345" spans="1:29">
       <c r="A345" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B345">
         <v>2017</v>
@@ -35014,7 +35320,7 @@
     </row>
     <row r="346" spans="1:29">
       <c r="A346" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B346">
         <v>2017</v>
@@ -35103,7 +35409,7 @@
     </row>
     <row r="347" spans="1:29">
       <c r="A347" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B347">
         <v>2017</v>
@@ -35192,7 +35498,7 @@
     </row>
     <row r="348" spans="1:29">
       <c r="A348" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B348">
         <v>2017</v>
@@ -35281,7 +35587,7 @@
     </row>
     <row r="349" spans="1:29">
       <c r="A349" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B349">
         <v>2017</v>
@@ -35370,7 +35676,7 @@
     </row>
     <row r="350" spans="1:29">
       <c r="A350" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B350">
         <v>2017</v>
@@ -35459,7 +35765,7 @@
     </row>
     <row r="351" spans="1:29">
       <c r="A351" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B351">
         <v>2017</v>
@@ -35548,7 +35854,7 @@
     </row>
     <row r="352" spans="1:29">
       <c r="A352" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B352">
         <v>2017</v>
@@ -35637,7 +35943,7 @@
     </row>
     <row r="353" spans="1:29">
       <c r="A353" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B353">
         <v>2017</v>
@@ -35726,7 +36032,7 @@
     </row>
     <row r="354" spans="1:29">
       <c r="A354" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B354">
         <v>2017</v>
@@ -35815,7 +36121,7 @@
     </row>
     <row r="355" spans="1:29">
       <c r="A355" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B355">
         <v>2017</v>
@@ -35904,7 +36210,7 @@
     </row>
     <row r="356" spans="1:29">
       <c r="A356" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B356">
         <v>2017</v>
@@ -35993,7 +36299,7 @@
     </row>
     <row r="357" spans="1:29">
       <c r="A357" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B357">
         <v>2017</v>
@@ -36082,7 +36388,7 @@
     </row>
     <row r="358" spans="1:29">
       <c r="A358" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B358">
         <v>2017</v>
@@ -36171,7 +36477,7 @@
     </row>
     <row r="359" spans="1:29">
       <c r="A359" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B359">
         <v>2017</v>
@@ -36260,7 +36566,7 @@
     </row>
     <row r="360" spans="1:29">
       <c r="A360" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B360">
         <v>2017</v>
@@ -36349,7 +36655,7 @@
     </row>
     <row r="361" spans="1:29">
       <c r="A361" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B361">
         <v>2017</v>
@@ -36438,7 +36744,7 @@
     </row>
     <row r="362" spans="1:29">
       <c r="A362" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B362">
         <v>2017</v>
@@ -36527,7 +36833,7 @@
     </row>
     <row r="363" spans="1:29">
       <c r="A363" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B363">
         <v>2017</v>
@@ -36616,7 +36922,7 @@
     </row>
     <row r="364" spans="1:29">
       <c r="A364" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B364">
         <v>2017</v>
@@ -36705,7 +37011,7 @@
     </row>
     <row r="365" spans="1:29">
       <c r="A365" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B365">
         <v>2017</v>
@@ -36794,7 +37100,7 @@
     </row>
     <row r="366" spans="1:29">
       <c r="A366" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B366">
         <v>2017</v>
@@ -36883,7 +37189,7 @@
     </row>
     <row r="367" spans="1:29">
       <c r="A367" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B367">
         <v>2017</v>
@@ -36972,7 +37278,7 @@
     </row>
     <row r="368" spans="1:29">
       <c r="A368" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B368">
         <v>2017</v>
@@ -37061,7 +37367,7 @@
     </row>
     <row r="369" spans="1:29">
       <c r="A369" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B369">
         <v>2017</v>
@@ -37150,7 +37456,7 @@
     </row>
     <row r="370" spans="1:29">
       <c r="A370" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B370">
         <v>2017</v>
@@ -37239,7 +37545,7 @@
     </row>
     <row r="371" spans="1:29">
       <c r="A371" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B371">
         <v>2017</v>
@@ -37328,7 +37634,7 @@
     </row>
     <row r="372" spans="1:29">
       <c r="A372" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B372">
         <v>2017</v>
@@ -37417,7 +37723,7 @@
     </row>
     <row r="373" spans="1:29">
       <c r="A373" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B373">
         <v>2017</v>
@@ -37506,7 +37812,7 @@
     </row>
     <row r="374" spans="1:29">
       <c r="A374" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B374">
         <v>2017</v>
@@ -37595,7 +37901,7 @@
     </row>
     <row r="375" spans="1:29">
       <c r="A375" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B375">
         <v>2017</v>
@@ -37684,7 +37990,7 @@
     </row>
     <row r="376" spans="1:29">
       <c r="A376" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B376">
         <v>2017</v>
@@ -37773,7 +38079,7 @@
     </row>
     <row r="377" spans="1:29">
       <c r="A377" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B377">
         <v>2017</v>
@@ -37862,7 +38168,7 @@
     </row>
     <row r="378" spans="1:29">
       <c r="A378" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B378">
         <v>2017</v>
@@ -37951,7 +38257,7 @@
     </row>
     <row r="379" spans="1:29">
       <c r="A379" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B379">
         <v>2017</v>
@@ -38040,7 +38346,7 @@
     </row>
     <row r="380" spans="1:29">
       <c r="A380" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B380">
         <v>2017</v>
@@ -38129,7 +38435,7 @@
     </row>
     <row r="381" spans="1:29">
       <c r="A381" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B381">
         <v>2017</v>
@@ -38218,7 +38524,7 @@
     </row>
     <row r="382" spans="1:29">
       <c r="A382" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B382">
         <v>2017</v>
@@ -38307,7 +38613,7 @@
     </row>
     <row r="383" spans="1:29">
       <c r="A383" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B383">
         <v>2017</v>
@@ -38396,7 +38702,7 @@
     </row>
     <row r="384" spans="1:29">
       <c r="A384" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B384">
         <v>2017</v>
@@ -38485,7 +38791,7 @@
     </row>
     <row r="385" spans="1:29">
       <c r="A385" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B385">
         <v>2017</v>
@@ -38574,7 +38880,7 @@
     </row>
     <row r="386" spans="1:29">
       <c r="A386" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B386">
         <v>2017</v>
@@ -38663,7 +38969,7 @@
     </row>
     <row r="387" spans="1:29">
       <c r="A387" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B387">
         <v>2017</v>
@@ -38752,7 +39058,7 @@
     </row>
     <row r="388" spans="1:29">
       <c r="A388" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B388">
         <v>2017</v>
@@ -38930,7 +39236,7 @@
     </row>
     <row r="390" spans="1:29">
       <c r="A390" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B390">
         <v>2017</v>
@@ -39019,7 +39325,7 @@
     </row>
     <row r="391" spans="1:29">
       <c r="A391" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B391">
         <v>2017</v>
@@ -39108,7 +39414,7 @@
     </row>
     <row r="392" spans="1:29">
       <c r="A392" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B392">
         <v>2017</v>
@@ -39197,7 +39503,7 @@
     </row>
     <row r="393" spans="1:29">
       <c r="A393" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B393">
         <v>2017</v>
@@ -39286,7 +39592,7 @@
     </row>
     <row r="394" spans="1:29">
       <c r="A394" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B394">
         <v>2017</v>
@@ -39375,7 +39681,7 @@
     </row>
     <row r="395" spans="1:29">
       <c r="A395" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B395">
         <v>2017</v>
@@ -39464,7 +39770,7 @@
     </row>
     <row r="396" spans="1:29">
       <c r="A396" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B396">
         <v>2017</v>
@@ -39553,7 +39859,7 @@
     </row>
     <row r="397" spans="1:29">
       <c r="A397" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B397">
         <v>2017</v>
@@ -39642,7 +39948,7 @@
     </row>
     <row r="398" spans="1:29">
       <c r="A398" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B398">
         <v>2017</v>
@@ -39731,7 +40037,7 @@
     </row>
     <row r="399" spans="1:29">
       <c r="A399" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B399">
         <v>2017</v>
@@ -39820,7 +40126,7 @@
     </row>
     <row r="400" spans="1:29">
       <c r="A400" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B400">
         <v>2017</v>
@@ -39909,7 +40215,7 @@
     </row>
     <row r="401" spans="1:29">
       <c r="A401" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B401">
         <v>2017</v>
@@ -39998,7 +40304,7 @@
     </row>
     <row r="402" spans="1:29">
       <c r="A402" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B402">
         <v>2017</v>
@@ -40087,7 +40393,7 @@
     </row>
     <row r="403" spans="1:29">
       <c r="A403" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B403">
         <v>2017</v>
@@ -40176,7 +40482,7 @@
     </row>
     <row r="404" spans="1:29">
       <c r="A404" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B404">
         <v>2017</v>
@@ -40265,7 +40571,7 @@
     </row>
     <row r="405" spans="1:29">
       <c r="A405" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B405">
         <v>2017</v>
@@ -40354,7 +40660,7 @@
     </row>
     <row r="406" spans="1:29">
       <c r="A406" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B406">
         <v>2017</v>
@@ -40443,7 +40749,7 @@
     </row>
     <row r="407" spans="1:29">
       <c r="A407" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B407">
         <v>2017</v>
@@ -40532,7 +40838,7 @@
     </row>
     <row r="408" spans="1:29">
       <c r="A408" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B408">
         <v>2017</v>
@@ -40621,7 +40927,7 @@
     </row>
     <row r="409" spans="1:29">
       <c r="A409" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B409">
         <v>2017</v>
@@ -40710,7 +41016,7 @@
     </row>
     <row r="410" spans="1:29">
       <c r="A410" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B410">
         <v>2017</v>
@@ -40799,7 +41105,7 @@
     </row>
     <row r="411" spans="1:29">
       <c r="A411" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B411">
         <v>2017</v>
@@ -40888,7 +41194,7 @@
     </row>
     <row r="412" spans="1:29">
       <c r="A412" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B412">
         <v>2017</v>
@@ -40977,7 +41283,7 @@
     </row>
     <row r="413" spans="1:29">
       <c r="A413" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B413">
         <v>2017</v>
@@ -41066,7 +41372,7 @@
     </row>
     <row r="414" spans="1:29">
       <c r="A414" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B414">
         <v>2017</v>
@@ -41155,7 +41461,7 @@
     </row>
     <row r="415" spans="1:29">
       <c r="A415" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B415">
         <v>2017</v>
@@ -41244,7 +41550,7 @@
     </row>
     <row r="416" spans="1:29">
       <c r="A416" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B416">
         <v>2017</v>
@@ -41333,7 +41639,7 @@
     </row>
     <row r="417" spans="1:29">
       <c r="A417" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B417">
         <v>2017</v>
@@ -41422,7 +41728,7 @@
     </row>
     <row r="418" spans="1:29">
       <c r="A418" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B418">
         <v>2017</v>
@@ -41511,7 +41817,7 @@
     </row>
     <row r="419" spans="1:29">
       <c r="A419" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B419">
         <v>2017</v>
@@ -41600,7 +41906,7 @@
     </row>
     <row r="420" spans="1:29">
       <c r="A420" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B420">
         <v>2017</v>
@@ -41689,7 +41995,7 @@
     </row>
     <row r="421" spans="1:29">
       <c r="A421" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B421">
         <v>2017</v>
@@ -41778,7 +42084,7 @@
     </row>
     <row r="422" spans="1:29">
       <c r="A422" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B422">
         <v>2017</v>
@@ -41867,7 +42173,7 @@
     </row>
     <row r="423" spans="1:29">
       <c r="A423" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B423">
         <v>2017</v>
@@ -41956,7 +42262,7 @@
     </row>
     <row r="424" spans="1:29">
       <c r="A424" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B424">
         <v>2017</v>
@@ -42045,7 +42351,7 @@
     </row>
     <row r="425" spans="1:29">
       <c r="A425" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B425">
         <v>2017</v>
@@ -42134,7 +42440,7 @@
     </row>
     <row r="426" spans="1:29">
       <c r="A426" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B426">
         <v>2017</v>
@@ -42312,7 +42618,7 @@
     </row>
     <row r="428" spans="1:29">
       <c r="A428" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B428">
         <v>2017</v>
@@ -42401,7 +42707,7 @@
     </row>
     <row r="429" spans="1:29">
       <c r="A429" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B429">
         <v>2017</v>
@@ -42490,7 +42796,7 @@
     </row>
     <row r="430" spans="1:29">
       <c r="A430" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B430">
         <v>2017</v>
@@ -42579,7 +42885,7 @@
     </row>
     <row r="431" spans="1:29">
       <c r="A431" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B431">
         <v>2017</v>
@@ -42668,7 +42974,7 @@
     </row>
     <row r="432" spans="1:29">
       <c r="A432" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B432">
         <v>2017</v>
@@ -42757,7 +43063,7 @@
     </row>
     <row r="433" spans="1:29">
       <c r="A433" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B433">
         <v>2017</v>
@@ -42846,7 +43152,7 @@
     </row>
     <row r="434" spans="1:29">
       <c r="A434" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B434">
         <v>2017</v>
@@ -42935,7 +43241,7 @@
     </row>
     <row r="435" spans="1:29">
       <c r="A435" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B435">
         <v>2017</v>
@@ -43024,7 +43330,7 @@
     </row>
     <row r="436" spans="1:29">
       <c r="A436" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B436">
         <v>2017</v>
@@ -43113,7 +43419,7 @@
     </row>
     <row r="437" spans="1:29">
       <c r="A437" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B437">
         <v>2017</v>
@@ -43202,7 +43508,7 @@
     </row>
     <row r="438" spans="1:29">
       <c r="A438" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B438">
         <v>2017</v>
@@ -43291,7 +43597,7 @@
     </row>
     <row r="439" spans="1:29">
       <c r="A439" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B439">
         <v>2017</v>
@@ -43380,7 +43686,7 @@
     </row>
     <row r="440" spans="1:29">
       <c r="A440" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B440">
         <v>2017</v>
@@ -43469,7 +43775,7 @@
     </row>
     <row r="441" spans="1:29">
       <c r="A441" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B441">
         <v>2017</v>
@@ -43558,7 +43864,7 @@
     </row>
     <row r="442" spans="1:29">
       <c r="A442" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B442">
         <v>2017</v>
@@ -43647,7 +43953,7 @@
     </row>
     <row r="443" spans="1:29">
       <c r="A443" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B443">
         <v>2017</v>
@@ -43736,7 +44042,7 @@
     </row>
     <row r="444" spans="1:29">
       <c r="A444" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B444">
         <v>2017</v>
@@ -43825,7 +44131,7 @@
     </row>
     <row r="445" spans="1:29">
       <c r="A445" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B445">
         <v>2017</v>
@@ -43914,7 +44220,7 @@
     </row>
     <row r="446" spans="1:29">
       <c r="A446" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B446">
         <v>2017</v>
@@ -44003,7 +44309,7 @@
     </row>
     <row r="447" spans="1:29">
       <c r="A447" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B447">
         <v>2017</v>
@@ -44092,7 +44398,7 @@
     </row>
     <row r="448" spans="1:29">
       <c r="A448" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B448">
         <v>2017</v>
@@ -44181,7 +44487,7 @@
     </row>
     <row r="449" spans="1:29">
       <c r="A449" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B449">
         <v>2017</v>
@@ -44270,7 +44576,7 @@
     </row>
     <row r="450" spans="1:29">
       <c r="A450" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B450">
         <v>2017</v>
@@ -44359,7 +44665,7 @@
     </row>
     <row r="451" spans="1:29">
       <c r="A451" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B451">
         <v>2017</v>
@@ -44448,7 +44754,7 @@
     </row>
     <row r="452" spans="1:29">
       <c r="A452" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B452">
         <v>2017</v>
@@ -44537,7 +44843,7 @@
     </row>
     <row r="453" spans="1:29">
       <c r="A453" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B453">
         <v>2017</v>
@@ -44626,7 +44932,7 @@
     </row>
     <row r="454" spans="1:29">
       <c r="A454" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B454">
         <v>2017</v>
@@ -44715,7 +45021,7 @@
     </row>
     <row r="455" spans="1:29">
       <c r="A455" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B455">
         <v>2017</v>
@@ -44804,7 +45110,7 @@
     </row>
     <row r="456" spans="1:29">
       <c r="A456" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B456">
         <v>2017</v>
@@ -44893,7 +45199,7 @@
     </row>
     <row r="457" spans="1:29">
       <c r="A457" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B457">
         <v>2017</v>
@@ -44982,7 +45288,7 @@
     </row>
     <row r="458" spans="1:29">
       <c r="A458" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B458">
         <v>2017</v>
@@ -45071,7 +45377,7 @@
     </row>
     <row r="459" spans="1:29">
       <c r="A459" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B459">
         <v>2017</v>
@@ -45160,7 +45466,7 @@
     </row>
     <row r="460" spans="1:29">
       <c r="A460" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B460">
         <v>2017</v>
@@ -45249,7 +45555,7 @@
     </row>
     <row r="461" spans="1:29">
       <c r="A461" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B461">
         <v>2017</v>
@@ -45338,7 +45644,7 @@
     </row>
     <row r="462" spans="1:29">
       <c r="A462" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B462">
         <v>2017</v>
@@ -45427,7 +45733,7 @@
     </row>
     <row r="463" spans="1:29">
       <c r="A463" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B463">
         <v>2017</v>
@@ -45516,7 +45822,7 @@
     </row>
     <row r="464" spans="1:29">
       <c r="A464" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B464">
         <v>2017</v>
@@ -45694,7 +46000,7 @@
     </row>
     <row r="466" spans="1:29">
       <c r="A466" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B466">
         <v>2017</v>
@@ -45783,7 +46089,7 @@
     </row>
     <row r="467" spans="1:29">
       <c r="A467" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B467">
         <v>2017</v>
@@ -45872,7 +46178,7 @@
     </row>
     <row r="468" spans="1:29">
       <c r="A468" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B468">
         <v>2017</v>
@@ -45961,7 +46267,7 @@
     </row>
     <row r="469" spans="1:29">
       <c r="A469" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B469">
         <v>2017</v>
@@ -46050,7 +46356,7 @@
     </row>
     <row r="470" spans="1:29">
       <c r="A470" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B470">
         <v>2017</v>
@@ -46139,7 +46445,7 @@
     </row>
     <row r="471" spans="1:29">
       <c r="A471" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B471">
         <v>2017</v>
@@ -46228,7 +46534,7 @@
     </row>
     <row r="472" spans="1:29">
       <c r="A472" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B472">
         <v>2017</v>
@@ -46317,7 +46623,7 @@
     </row>
     <row r="473" spans="1:29">
       <c r="A473" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B473">
         <v>2017</v>
@@ -46406,7 +46712,7 @@
     </row>
     <row r="474" spans="1:29">
       <c r="A474" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B474">
         <v>2017</v>
@@ -46495,7 +46801,7 @@
     </row>
     <row r="475" spans="1:29">
       <c r="A475" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B475">
         <v>2017</v>
@@ -46584,7 +46890,7 @@
     </row>
     <row r="476" spans="1:29">
       <c r="A476" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B476">
         <v>2017</v>
@@ -46673,7 +46979,7 @@
     </row>
     <row r="477" spans="1:29">
       <c r="A477" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B477">
         <v>2017</v>
@@ -46762,7 +47068,7 @@
     </row>
     <row r="478" spans="1:29">
       <c r="A478" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B478">
         <v>2017</v>
@@ -46851,7 +47157,7 @@
     </row>
     <row r="479" spans="1:29">
       <c r="A479" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B479">
         <v>2017</v>
@@ -46940,7 +47246,7 @@
     </row>
     <row r="480" spans="1:29">
       <c r="A480" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B480">
         <v>2017</v>
@@ -47029,7 +47335,7 @@
     </row>
     <row r="481" spans="1:29">
       <c r="A481" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B481">
         <v>2017</v>
@@ -47118,7 +47424,7 @@
     </row>
     <row r="482" spans="1:29">
       <c r="A482" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B482">
         <v>2017</v>
@@ -47207,7 +47513,7 @@
     </row>
     <row r="483" spans="1:29">
       <c r="A483" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B483">
         <v>2017</v>
@@ -47296,7 +47602,7 @@
     </row>
     <row r="484" spans="1:29">
       <c r="A484" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B484">
         <v>2017</v>
@@ -47385,7 +47691,7 @@
     </row>
     <row r="485" spans="1:29">
       <c r="A485" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B485">
         <v>2017</v>
@@ -47474,7 +47780,7 @@
     </row>
     <row r="486" spans="1:29">
       <c r="A486" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B486">
         <v>2017</v>
@@ -47563,7 +47869,7 @@
     </row>
     <row r="487" spans="1:29">
       <c r="A487" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B487">
         <v>2017</v>
@@ -47652,7 +47958,7 @@
     </row>
     <row r="488" spans="1:29">
       <c r="A488" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B488">
         <v>2017</v>
@@ -47741,7 +48047,7 @@
     </row>
     <row r="489" spans="1:29">
       <c r="A489" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B489">
         <v>2017</v>
@@ -47830,7 +48136,7 @@
     </row>
     <row r="490" spans="1:29">
       <c r="A490" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B490">
         <v>2017</v>
@@ -47919,7 +48225,7 @@
     </row>
     <row r="491" spans="1:29">
       <c r="A491" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B491">
         <v>2017</v>
@@ -48008,7 +48314,7 @@
     </row>
     <row r="492" spans="1:29">
       <c r="A492" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B492">
         <v>2017</v>
@@ -48097,7 +48403,7 @@
     </row>
     <row r="493" spans="1:29">
       <c r="A493" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B493">
         <v>2017</v>
@@ -48186,7 +48492,7 @@
     </row>
     <row r="494" spans="1:29">
       <c r="A494" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B494">
         <v>2017</v>
@@ -48275,7 +48581,7 @@
     </row>
     <row r="495" spans="1:29">
       <c r="A495" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B495">
         <v>2017</v>
@@ -48364,7 +48670,7 @@
     </row>
     <row r="496" spans="1:29">
       <c r="A496" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B496">
         <v>2017</v>
@@ -48453,7 +48759,7 @@
     </row>
     <row r="497" spans="1:29">
       <c r="A497" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B497">
         <v>2017</v>
@@ -48542,7 +48848,7 @@
     </row>
     <row r="498" spans="1:29">
       <c r="A498" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B498">
         <v>2017</v>
@@ -48631,7 +48937,7 @@
     </row>
     <row r="499" spans="1:29">
       <c r="A499" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B499">
         <v>2017</v>
@@ -48720,7 +49026,7 @@
     </row>
     <row r="500" spans="1:29">
       <c r="A500" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B500">
         <v>2017</v>
@@ -48809,7 +49115,7 @@
     </row>
     <row r="501" spans="1:29">
       <c r="A501" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B501">
         <v>2017</v>
@@ -48898,7 +49204,7 @@
     </row>
     <row r="502" spans="1:29">
       <c r="A502" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B502">
         <v>2017</v>
@@ -49076,7 +49382,7 @@
     </row>
     <row r="504" spans="1:29">
       <c r="A504" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B504">
         <v>2017</v>
@@ -49165,7 +49471,7 @@
     </row>
     <row r="505" spans="1:29">
       <c r="A505" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B505">
         <v>2017</v>
@@ -49254,7 +49560,7 @@
     </row>
     <row r="506" spans="1:29">
       <c r="A506" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B506">
         <v>2017</v>
@@ -49343,7 +49649,7 @@
     </row>
     <row r="507" spans="1:29">
       <c r="A507" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B507">
         <v>2017</v>
@@ -49432,7 +49738,7 @@
     </row>
     <row r="508" spans="1:29">
       <c r="A508" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B508">
         <v>2017</v>
@@ -49521,7 +49827,7 @@
     </row>
     <row r="509" spans="1:29">
       <c r="A509" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B509">
         <v>2017</v>
@@ -49610,7 +49916,7 @@
     </row>
     <row r="510" spans="1:29">
       <c r="A510" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B510">
         <v>2017</v>
@@ -49699,7 +50005,7 @@
     </row>
     <row r="511" spans="1:29">
       <c r="A511" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B511">
         <v>2017</v>
@@ -49788,7 +50094,7 @@
     </row>
     <row r="512" spans="1:29">
       <c r="A512" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B512">
         <v>2017</v>
@@ -49877,7 +50183,7 @@
     </row>
     <row r="513" spans="1:29">
       <c r="A513" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B513">
         <v>2017</v>
@@ -49966,7 +50272,7 @@
     </row>
     <row r="514" spans="1:29">
       <c r="A514" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B514">
         <v>2017</v>
@@ -50055,7 +50361,7 @@
     </row>
     <row r="515" spans="1:29">
       <c r="A515" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B515">
         <v>2017</v>
@@ -50144,7 +50450,7 @@
     </row>
     <row r="516" spans="1:29">
       <c r="A516" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B516">
         <v>2017</v>
@@ -50233,7 +50539,7 @@
     </row>
     <row r="517" spans="1:29">
       <c r="A517" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B517">
         <v>2017</v>
@@ -50322,7 +50628,7 @@
     </row>
     <row r="518" spans="1:29">
       <c r="A518" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B518">
         <v>2017</v>
@@ -50411,7 +50717,7 @@
     </row>
     <row r="519" spans="1:29">
       <c r="A519" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B519">
         <v>2017</v>
@@ -50500,7 +50806,7 @@
     </row>
     <row r="520" spans="1:29">
       <c r="A520" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B520">
         <v>2017</v>
@@ -50589,7 +50895,7 @@
     </row>
     <row r="521" spans="1:29">
       <c r="A521" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B521">
         <v>2017</v>
@@ -50678,7 +50984,7 @@
     </row>
     <row r="522" spans="1:29">
       <c r="A522" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B522">
         <v>2017</v>
@@ -50767,7 +51073,7 @@
     </row>
     <row r="523" spans="1:29">
       <c r="A523" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B523">
         <v>2017</v>
@@ -50856,7 +51162,7 @@
     </row>
     <row r="524" spans="1:29">
       <c r="A524" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B524">
         <v>2017</v>
@@ -50945,7 +51251,7 @@
     </row>
     <row r="525" spans="1:29">
       <c r="A525" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B525">
         <v>2017</v>
@@ -51034,7 +51340,7 @@
     </row>
     <row r="526" spans="1:29">
       <c r="A526" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B526">
         <v>2017</v>
@@ -51123,7 +51429,7 @@
     </row>
     <row r="527" spans="1:29">
       <c r="A527" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B527">
         <v>2017</v>
@@ -51212,7 +51518,7 @@
     </row>
     <row r="528" spans="1:29">
       <c r="A528" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B528">
         <v>2017</v>
@@ -51301,7 +51607,7 @@
     </row>
     <row r="529" spans="1:29">
       <c r="A529" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B529">
         <v>2017</v>
@@ -51390,7 +51696,7 @@
     </row>
     <row r="530" spans="1:29">
       <c r="A530" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B530">
         <v>2017</v>
@@ -51479,7 +51785,7 @@
     </row>
     <row r="531" spans="1:29">
       <c r="A531" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B531">
         <v>2017</v>
@@ -51568,7 +51874,7 @@
     </row>
     <row r="532" spans="1:29">
       <c r="A532" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B532">
         <v>2017</v>
@@ -51657,7 +51963,7 @@
     </row>
     <row r="533" spans="1:29">
       <c r="A533" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B533">
         <v>2017</v>
@@ -51746,7 +52052,7 @@
     </row>
     <row r="534" spans="1:29">
       <c r="A534" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B534">
         <v>2017</v>
@@ -51835,7 +52141,7 @@
     </row>
     <row r="535" spans="1:29">
       <c r="A535" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B535">
         <v>2017</v>
@@ -51924,7 +52230,7 @@
     </row>
     <row r="536" spans="1:29">
       <c r="A536" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B536">
         <v>2017</v>
@@ -52013,7 +52319,7 @@
     </row>
     <row r="537" spans="1:29">
       <c r="A537" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B537">
         <v>2017</v>
@@ -52102,7 +52408,7 @@
     </row>
     <row r="538" spans="1:29">
       <c r="A538" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B538">
         <v>2017</v>
@@ -52191,7 +52497,7 @@
     </row>
     <row r="539" spans="1:29">
       <c r="A539" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B539">
         <v>2017</v>
@@ -52280,7 +52586,7 @@
     </row>
     <row r="540" spans="1:29">
       <c r="A540" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B540">
         <v>2017</v>
@@ -52458,7 +52764,7 @@
     </row>
     <row r="542" spans="1:29">
       <c r="A542" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B542">
         <v>2017</v>
@@ -52547,7 +52853,7 @@
     </row>
     <row r="543" spans="1:29">
       <c r="A543" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B543">
         <v>2017</v>
@@ -52636,7 +52942,7 @@
     </row>
     <row r="544" spans="1:29">
       <c r="A544" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B544">
         <v>2017</v>
@@ -52725,7 +53031,7 @@
     </row>
     <row r="545" spans="1:29">
       <c r="A545" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B545">
         <v>2017</v>
@@ -52814,7 +53120,7 @@
     </row>
     <row r="546" spans="1:29">
       <c r="A546" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B546">
         <v>2017</v>
@@ -52903,7 +53209,7 @@
     </row>
     <row r="547" spans="1:29">
       <c r="A547" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B547">
         <v>2017</v>
@@ -52992,7 +53298,7 @@
     </row>
     <row r="548" spans="1:29">
       <c r="A548" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B548">
         <v>2017</v>
@@ -53081,7 +53387,7 @@
     </row>
     <row r="549" spans="1:29">
       <c r="A549" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B549">
         <v>2017</v>
@@ -53170,7 +53476,7 @@
     </row>
     <row r="550" spans="1:29">
       <c r="A550" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B550">
         <v>2017</v>
@@ -53259,7 +53565,7 @@
     </row>
     <row r="551" spans="1:29">
       <c r="A551" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B551">
         <v>2017</v>
@@ -53348,7 +53654,7 @@
     </row>
     <row r="552" spans="1:29">
       <c r="A552" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B552">
         <v>2017</v>
@@ -53437,7 +53743,7 @@
     </row>
     <row r="553" spans="1:29">
       <c r="A553" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B553">
         <v>2017</v>
@@ -53526,7 +53832,7 @@
     </row>
     <row r="554" spans="1:29">
       <c r="A554" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B554">
         <v>2017</v>
@@ -53615,7 +53921,7 @@
     </row>
     <row r="555" spans="1:29">
       <c r="A555" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B555">
         <v>2017</v>
@@ -53704,7 +54010,7 @@
     </row>
     <row r="556" spans="1:29">
       <c r="A556" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B556">
         <v>2017</v>
@@ -53793,7 +54099,7 @@
     </row>
     <row r="557" spans="1:29">
       <c r="A557" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B557">
         <v>2017</v>
@@ -53882,7 +54188,7 @@
     </row>
     <row r="558" spans="1:29">
       <c r="A558" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B558">
         <v>2017</v>
@@ -53971,7 +54277,7 @@
     </row>
     <row r="559" spans="1:29">
       <c r="A559" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B559">
         <v>2017</v>
@@ -54060,7 +54366,7 @@
     </row>
     <row r="560" spans="1:29">
       <c r="A560" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B560">
         <v>2017</v>
@@ -54149,7 +54455,7 @@
     </row>
     <row r="561" spans="1:29">
       <c r="A561" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B561">
         <v>2017</v>
@@ -54238,7 +54544,7 @@
     </row>
     <row r="562" spans="1:29">
       <c r="A562" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B562">
         <v>2017</v>
@@ -54327,7 +54633,7 @@
     </row>
     <row r="563" spans="1:29">
       <c r="A563" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B563">
         <v>2017</v>
@@ -54416,7 +54722,7 @@
     </row>
     <row r="564" spans="1:29">
       <c r="A564" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B564">
         <v>2017</v>
@@ -54505,7 +54811,7 @@
     </row>
     <row r="565" spans="1:29">
       <c r="A565" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B565">
         <v>2017</v>
@@ -54594,7 +54900,7 @@
     </row>
     <row r="566" spans="1:29">
       <c r="A566" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B566">
         <v>2017</v>
@@ -54683,7 +54989,7 @@
     </row>
     <row r="567" spans="1:29">
       <c r="A567" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B567">
         <v>2017</v>
@@ -54772,7 +55078,7 @@
     </row>
     <row r="568" spans="1:29">
       <c r="A568" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B568">
         <v>2017</v>
@@ -54861,7 +55167,7 @@
     </row>
     <row r="569" spans="1:29">
       <c r="A569" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B569">
         <v>2017</v>
@@ -54950,7 +55256,7 @@
     </row>
     <row r="570" spans="1:29">
       <c r="A570" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B570">
         <v>2017</v>
@@ -55039,7 +55345,7 @@
     </row>
     <row r="571" spans="1:29">
       <c r="A571" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B571">
         <v>2017</v>
@@ -55128,7 +55434,7 @@
     </row>
     <row r="572" spans="1:29">
       <c r="A572" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B572">
         <v>2017</v>
@@ -55217,7 +55523,7 @@
     </row>
     <row r="573" spans="1:29">
       <c r="A573" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B573">
         <v>2017</v>
@@ -55306,7 +55612,7 @@
     </row>
     <row r="574" spans="1:29">
       <c r="A574" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B574">
         <v>2017</v>
@@ -55395,7 +55701,7 @@
     </row>
     <row r="575" spans="1:29">
       <c r="A575" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B575">
         <v>2017</v>
@@ -55484,7 +55790,7 @@
     </row>
     <row r="576" spans="1:29">
       <c r="A576" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B576">
         <v>2017</v>
@@ -55573,7 +55879,7 @@
     </row>
     <row r="577" spans="1:29">
       <c r="A577" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B577">
         <v>2017</v>
@@ -55662,7 +55968,7 @@
     </row>
     <row r="578" spans="1:29">
       <c r="A578" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B578">
         <v>2017</v>
@@ -55840,7 +56146,7 @@
     </row>
     <row r="580" spans="1:29">
       <c r="A580" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B580">
         <v>2017</v>
@@ -55929,7 +56235,7 @@
     </row>
     <row r="581" spans="1:29">
       <c r="A581" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B581">
         <v>2017</v>
@@ -56018,7 +56324,7 @@
     </row>
     <row r="582" spans="1:29">
       <c r="A582" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B582">
         <v>2017</v>
@@ -56107,7 +56413,7 @@
     </row>
     <row r="583" spans="1:29">
       <c r="A583" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B583">
         <v>2017</v>
@@ -56196,7 +56502,7 @@
     </row>
     <row r="584" spans="1:29">
       <c r="A584" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B584">
         <v>2017</v>
@@ -56285,7 +56591,7 @@
     </row>
     <row r="585" spans="1:29">
       <c r="A585" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B585">
         <v>2017</v>
@@ -56374,7 +56680,7 @@
     </row>
     <row r="586" spans="1:29">
       <c r="A586" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B586">
         <v>2017</v>
@@ -56463,7 +56769,7 @@
     </row>
     <row r="587" spans="1:29">
       <c r="A587" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B587">
         <v>2017</v>
@@ -56552,7 +56858,7 @@
     </row>
     <row r="588" spans="1:29">
       <c r="A588" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B588">
         <v>2017</v>
@@ -56641,7 +56947,7 @@
     </row>
     <row r="589" spans="1:29">
       <c r="A589" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B589">
         <v>2017</v>
@@ -56730,7 +57036,7 @@
     </row>
     <row r="590" spans="1:29">
       <c r="A590" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B590">
         <v>2017</v>
@@ -56819,7 +57125,7 @@
     </row>
     <row r="591" spans="1:29">
       <c r="A591" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B591">
         <v>2017</v>
@@ -56908,7 +57214,7 @@
     </row>
     <row r="592" spans="1:29">
       <c r="A592" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B592">
         <v>2017</v>
@@ -56997,7 +57303,7 @@
     </row>
     <row r="593" spans="1:29">
       <c r="A593" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B593">
         <v>2017</v>
@@ -57086,7 +57392,7 @@
     </row>
     <row r="594" spans="1:29">
       <c r="A594" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B594">
         <v>2017</v>
@@ -57175,7 +57481,7 @@
     </row>
     <row r="595" spans="1:29">
       <c r="A595" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B595">
         <v>2017</v>
@@ -57264,7 +57570,7 @@
     </row>
     <row r="596" spans="1:29">
       <c r="A596" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B596">
         <v>2017</v>
@@ -57353,7 +57659,7 @@
     </row>
     <row r="597" spans="1:29">
       <c r="A597" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B597">
         <v>2017</v>
@@ -57442,7 +57748,7 @@
     </row>
     <row r="598" spans="1:29">
       <c r="A598" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B598">
         <v>2017</v>
@@ -57531,7 +57837,7 @@
     </row>
     <row r="599" spans="1:29">
       <c r="A599" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B599">
         <v>2017</v>
@@ -57620,7 +57926,7 @@
     </row>
     <row r="600" spans="1:29">
       <c r="A600" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B600">
         <v>2017</v>
@@ -57709,7 +58015,7 @@
     </row>
     <row r="601" spans="1:29">
       <c r="A601" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B601">
         <v>2017</v>
@@ -57798,7 +58104,7 @@
     </row>
     <row r="602" spans="1:29">
       <c r="A602" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B602">
         <v>2017</v>
@@ -57887,7 +58193,7 @@
     </row>
     <row r="603" spans="1:29">
       <c r="A603" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B603">
         <v>2017</v>
@@ -57976,7 +58282,7 @@
     </row>
     <row r="604" spans="1:29">
       <c r="A604" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B604">
         <v>2017</v>
@@ -58065,7 +58371,7 @@
     </row>
     <row r="605" spans="1:29">
       <c r="A605" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B605">
         <v>2017</v>
@@ -58154,7 +58460,7 @@
     </row>
     <row r="606" spans="1:29">
       <c r="A606" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B606">
         <v>2017</v>
@@ -58243,7 +58549,7 @@
     </row>
     <row r="607" spans="1:29">
       <c r="A607" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B607">
         <v>2017</v>
@@ -58332,7 +58638,7 @@
     </row>
     <row r="608" spans="1:29">
       <c r="A608" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B608">
         <v>2017</v>
@@ -58421,7 +58727,7 @@
     </row>
     <row r="609" spans="1:29">
       <c r="A609" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B609">
         <v>2017</v>
@@ -58510,7 +58816,7 @@
     </row>
     <row r="610" spans="1:29">
       <c r="A610" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B610">
         <v>2017</v>
@@ -58599,7 +58905,7 @@
     </row>
     <row r="611" spans="1:29">
       <c r="A611" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B611">
         <v>2017</v>
@@ -58688,7 +58994,7 @@
     </row>
     <row r="612" spans="1:29">
       <c r="A612" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B612">
         <v>2017</v>
@@ -58777,7 +59083,7 @@
     </row>
     <row r="613" spans="1:29">
       <c r="A613" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B613">
         <v>2017</v>
@@ -58866,7 +59172,7 @@
     </row>
     <row r="614" spans="1:29">
       <c r="A614" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B614">
         <v>2017</v>
@@ -58955,7 +59261,7 @@
     </row>
     <row r="615" spans="1:29">
       <c r="A615" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B615">
         <v>2017</v>
@@ -59044,7 +59350,7 @@
     </row>
     <row r="616" spans="1:29">
       <c r="A616" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B616">
         <v>2017</v>
@@ -59133,7 +59439,7 @@
     </row>
     <row r="617" spans="1:29">
       <c r="A617" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B617">
         <v>2017</v>
@@ -59222,7 +59528,7 @@
     </row>
     <row r="618" spans="1:29">
       <c r="A618" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B618">
         <v>2017</v>
@@ -59311,7 +59617,7 @@
     </row>
     <row r="619" spans="1:29">
       <c r="A619" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B619">
         <v>2017</v>
@@ -59400,7 +59706,7 @@
     </row>
     <row r="620" spans="1:29">
       <c r="A620" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B620">
         <v>2017</v>
@@ -59489,7 +59795,7 @@
     </row>
     <row r="621" spans="1:29">
       <c r="A621" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B621">
         <v>2017</v>
@@ -59578,7 +59884,7 @@
     </row>
     <row r="622" spans="1:29">
       <c r="A622" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B622">
         <v>2017</v>
@@ -59667,7 +59973,7 @@
     </row>
     <row r="623" spans="1:29">
       <c r="A623" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B623">
         <v>2017</v>
@@ -59756,7 +60062,7 @@
     </row>
     <row r="624" spans="1:29">
       <c r="A624" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B624">
         <v>2017</v>
@@ -59845,7 +60151,7 @@
     </row>
     <row r="625" spans="1:29">
       <c r="A625" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B625">
         <v>2017</v>
@@ -59934,7 +60240,7 @@
     </row>
     <row r="626" spans="1:29">
       <c r="A626" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B626">
         <v>2017</v>
@@ -60023,7 +60329,7 @@
     </row>
     <row r="627" spans="1:29">
       <c r="A627" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B627">
         <v>2017</v>
@@ -60112,7 +60418,7 @@
     </row>
     <row r="628" spans="1:29">
       <c r="A628" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B628">
         <v>2017</v>
@@ -60201,7 +60507,7 @@
     </row>
     <row r="629" spans="1:29">
       <c r="A629" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B629">
         <v>2017</v>
@@ -60290,7 +60596,7 @@
     </row>
     <row r="630" spans="1:29">
       <c r="A630" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B630">
         <v>2017</v>
@@ -60379,7 +60685,7 @@
     </row>
     <row r="631" spans="1:29">
       <c r="A631" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B631">
         <v>2017</v>
@@ -60468,7 +60774,7 @@
     </row>
     <row r="632" spans="1:29">
       <c r="A632" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B632">
         <v>2017</v>
@@ -60557,7 +60863,7 @@
     </row>
     <row r="633" spans="1:29">
       <c r="A633" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B633">
         <v>2017</v>
@@ -60646,7 +60952,7 @@
     </row>
     <row r="634" spans="1:29">
       <c r="A634" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B634">
         <v>2017</v>
@@ -60735,7 +61041,7 @@
     </row>
     <row r="635" spans="1:29">
       <c r="A635" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B635">
         <v>2017</v>
@@ -60824,7 +61130,7 @@
     </row>
     <row r="636" spans="1:29">
       <c r="A636" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B636">
         <v>2017</v>
@@ -60913,7 +61219,7 @@
     </row>
     <row r="637" spans="1:29">
       <c r="A637" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B637">
         <v>2017</v>
@@ -61002,7 +61308,7 @@
     </row>
     <row r="638" spans="1:29">
       <c r="A638" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B638">
         <v>2017</v>
@@ -61091,7 +61397,7 @@
     </row>
     <row r="639" spans="1:29">
       <c r="A639" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B639">
         <v>2017</v>
@@ -61180,7 +61486,7 @@
     </row>
     <row r="640" spans="1:29">
       <c r="A640" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B640">
         <v>2017</v>
@@ -61269,7 +61575,7 @@
     </row>
     <row r="641" spans="1:29">
       <c r="A641" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B641">
         <v>2017</v>
@@ -61358,7 +61664,7 @@
     </row>
     <row r="642" spans="1:29">
       <c r="A642" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B642">
         <v>2017</v>
@@ -61447,7 +61753,7 @@
     </row>
     <row r="643" spans="1:29">
       <c r="A643" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B643">
         <v>2017</v>
@@ -61536,7 +61842,7 @@
     </row>
     <row r="644" spans="1:29">
       <c r="A644" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B644">
         <v>2017</v>
@@ -61625,7 +61931,7 @@
     </row>
     <row r="645" spans="1:29">
       <c r="A645" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B645">
         <v>2017</v>
@@ -61714,7 +62020,7 @@
     </row>
     <row r="646" spans="1:29">
       <c r="A646" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B646">
         <v>2017</v>
@@ -61803,7 +62109,7 @@
     </row>
     <row r="647" spans="1:29">
       <c r="A647" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B647">
         <v>2017</v>
@@ -61892,7 +62198,7 @@
     </row>
     <row r="648" spans="1:29">
       <c r="A648" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B648">
         <v>2017</v>
@@ -61981,7 +62287,7 @@
     </row>
     <row r="649" spans="1:29">
       <c r="A649" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B649">
         <v>2017</v>
@@ -62070,7 +62376,7 @@
     </row>
     <row r="650" spans="1:29">
       <c r="A650" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B650">
         <v>2017</v>
@@ -62159,7 +62465,7 @@
     </row>
     <row r="651" spans="1:29">
       <c r="A651" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B651">
         <v>2017</v>
@@ -62248,7 +62554,7 @@
     </row>
     <row r="652" spans="1:29">
       <c r="A652" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B652">
         <v>2017</v>
@@ -62337,7 +62643,7 @@
     </row>
     <row r="653" spans="1:29">
       <c r="A653" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B653">
         <v>2017</v>
@@ -62426,7 +62732,7 @@
     </row>
     <row r="654" spans="1:29">
       <c r="A654" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B654">
         <v>2017</v>
@@ -62515,7 +62821,7 @@
     </row>
     <row r="655" spans="1:29">
       <c r="A655" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B655">
         <v>2017</v>
@@ -62604,7 +62910,7 @@
     </row>
     <row r="656" spans="1:29">
       <c r="A656" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B656">
         <v>2017</v>
@@ -62693,7 +62999,7 @@
     </row>
     <row r="657" spans="1:29">
       <c r="A657" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B657">
         <v>2017</v>
@@ -62782,7 +63088,7 @@
     </row>
     <row r="658" spans="1:29">
       <c r="A658" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B658">
         <v>2017</v>
@@ -62871,7 +63177,7 @@
     </row>
     <row r="659" spans="1:29">
       <c r="A659" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B659">
         <v>2017</v>
@@ -62960,7 +63266,7 @@
     </row>
     <row r="660" spans="1:29">
       <c r="A660" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B660">
         <v>2017</v>
@@ -63049,7 +63355,7 @@
     </row>
     <row r="661" spans="1:29">
       <c r="A661" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B661">
         <v>2017</v>
@@ -63138,7 +63444,7 @@
     </row>
     <row r="662" spans="1:29">
       <c r="A662" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B662">
         <v>2017</v>
@@ -63227,7 +63533,7 @@
     </row>
     <row r="663" spans="1:29">
       <c r="A663" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B663">
         <v>2017</v>
@@ -63316,7 +63622,7 @@
     </row>
     <row r="664" spans="1:29">
       <c r="A664" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B664">
         <v>2017</v>
@@ -63405,7 +63711,7 @@
     </row>
     <row r="665" spans="1:29">
       <c r="A665" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B665">
         <v>2017</v>
@@ -63494,7 +63800,7 @@
     </row>
     <row r="666" spans="1:29">
       <c r="A666" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B666">
         <v>2017</v>
@@ -63672,7 +63978,7 @@
     </row>
     <row r="668" spans="1:29">
       <c r="A668" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B668">
         <v>2017</v>
@@ -63761,7 +64067,7 @@
     </row>
     <row r="669" spans="1:29">
       <c r="A669" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B669">
         <v>2017</v>
@@ -63850,7 +64156,7 @@
     </row>
     <row r="670" spans="1:29">
       <c r="A670" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B670">
         <v>2017</v>
@@ -63939,7 +64245,7 @@
     </row>
     <row r="671" spans="1:29">
       <c r="A671" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B671">
         <v>2017</v>
@@ -64028,7 +64334,7 @@
     </row>
     <row r="672" spans="1:29">
       <c r="A672" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B672">
         <v>2017</v>
@@ -64117,7 +64423,7 @@
     </row>
     <row r="673" spans="1:29">
       <c r="A673" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B673">
         <v>2017</v>
@@ -64206,7 +64512,7 @@
     </row>
     <row r="674" spans="1:29">
       <c r="A674" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B674">
         <v>2017</v>
@@ -64295,7 +64601,7 @@
     </row>
     <row r="675" spans="1:29">
       <c r="A675" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B675">
         <v>2017</v>
@@ -64384,7 +64690,7 @@
     </row>
     <row r="676" spans="1:29">
       <c r="A676" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B676">
         <v>2017</v>
@@ -64473,7 +64779,7 @@
     </row>
     <row r="677" spans="1:29">
       <c r="A677" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B677">
         <v>2017</v>
@@ -64562,7 +64868,7 @@
     </row>
     <row r="678" spans="1:29">
       <c r="A678" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B678">
         <v>2017</v>
@@ -64651,7 +64957,7 @@
     </row>
     <row r="679" spans="1:29">
       <c r="A679" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B679">
         <v>2017</v>
@@ -64740,7 +65046,7 @@
     </row>
     <row r="680" spans="1:29">
       <c r="A680" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B680">
         <v>2017</v>
@@ -64829,7 +65135,7 @@
     </row>
     <row r="681" spans="1:29">
       <c r="A681" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B681">
         <v>2017</v>
@@ -64918,7 +65224,7 @@
     </row>
     <row r="682" spans="1:29">
       <c r="A682" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B682">
         <v>2017</v>
@@ -65007,7 +65313,7 @@
     </row>
     <row r="683" spans="1:29">
       <c r="A683" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B683">
         <v>2017</v>
@@ -65096,7 +65402,7 @@
     </row>
     <row r="684" spans="1:29">
       <c r="A684" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B684">
         <v>2017</v>
@@ -65185,7 +65491,7 @@
     </row>
     <row r="685" spans="1:29">
       <c r="A685" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B685">
         <v>2017</v>
@@ -65274,7 +65580,7 @@
     </row>
     <row r="686" spans="1:29">
       <c r="A686" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B686">
         <v>2017</v>
@@ -65363,7 +65669,7 @@
     </row>
     <row r="687" spans="1:29">
       <c r="A687" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B687">
         <v>2017</v>
@@ -65452,7 +65758,7 @@
     </row>
     <row r="688" spans="1:29">
       <c r="A688" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B688">
         <v>2017</v>
@@ -65541,7 +65847,7 @@
     </row>
     <row r="689" spans="1:29">
       <c r="A689" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B689">
         <v>2017</v>
@@ -65630,7 +65936,7 @@
     </row>
     <row r="690" spans="1:29">
       <c r="A690" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B690">
         <v>2017</v>
@@ -65719,7 +66025,7 @@
     </row>
     <row r="691" spans="1:29">
       <c r="A691" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B691">
         <v>2017</v>
@@ -65808,7 +66114,7 @@
     </row>
     <row r="692" spans="1:29">
       <c r="A692" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B692">
         <v>2017</v>
@@ -65897,7 +66203,7 @@
     </row>
     <row r="693" spans="1:29">
       <c r="A693" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B693">
         <v>2017</v>
@@ -65986,7 +66292,7 @@
     </row>
     <row r="694" spans="1:29">
       <c r="A694" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B694">
         <v>2017</v>
@@ -66075,7 +66381,7 @@
     </row>
     <row r="695" spans="1:29">
       <c r="A695" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B695">
         <v>2017</v>
@@ -66164,7 +66470,7 @@
     </row>
     <row r="696" spans="1:29">
       <c r="A696" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B696">
         <v>2017</v>
@@ -66253,7 +66559,7 @@
     </row>
     <row r="697" spans="1:29">
       <c r="A697" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B697">
         <v>2017</v>
@@ -66342,7 +66648,7 @@
     </row>
     <row r="698" spans="1:29">
       <c r="A698" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B698">
         <v>2017</v>
@@ -66431,7 +66737,7 @@
     </row>
     <row r="699" spans="1:29">
       <c r="A699" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B699">
         <v>2017</v>
@@ -66520,7 +66826,7 @@
     </row>
     <row r="700" spans="1:29">
       <c r="A700" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B700">
         <v>2017</v>
@@ -66609,7 +66915,7 @@
     </row>
     <row r="701" spans="1:29">
       <c r="A701" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B701">
         <v>2017</v>
@@ -66698,7 +67004,7 @@
     </row>
     <row r="702" spans="1:29">
       <c r="A702" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B702">
         <v>2017</v>
@@ -66787,7 +67093,7 @@
     </row>
     <row r="703" spans="1:29">
       <c r="A703" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B703">
         <v>2017</v>
@@ -66876,7 +67182,7 @@
     </row>
     <row r="704" spans="1:29">
       <c r="A704" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B704">
         <v>2017</v>
@@ -66965,7 +67271,7 @@
     </row>
     <row r="705" spans="1:29">
       <c r="A705" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B705">
         <v>2017</v>
@@ -67054,7 +67360,7 @@
     </row>
     <row r="706" spans="1:29">
       <c r="A706" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B706">
         <v>2017</v>
@@ -67143,7 +67449,7 @@
     </row>
     <row r="707" spans="1:29">
       <c r="A707" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B707">
         <v>2017</v>
@@ -67232,7 +67538,7 @@
     </row>
     <row r="708" spans="1:29">
       <c r="A708" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B708">
         <v>2017</v>
@@ -67321,7 +67627,7 @@
     </row>
     <row r="709" spans="1:29">
       <c r="A709" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B709">
         <v>2017</v>
@@ -67410,7 +67716,7 @@
     </row>
     <row r="710" spans="1:29">
       <c r="A710" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B710">
         <v>2017</v>
@@ -67499,7 +67805,7 @@
     </row>
     <row r="711" spans="1:29">
       <c r="A711" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B711">
         <v>2017</v>
@@ -67588,7 +67894,7 @@
     </row>
     <row r="712" spans="1:29">
       <c r="A712" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B712">
         <v>2017</v>
@@ -67677,7 +67983,7 @@
     </row>
     <row r="713" spans="1:29">
       <c r="A713" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B713">
         <v>2017</v>
@@ -67766,7 +68072,7 @@
     </row>
     <row r="714" spans="1:29">
       <c r="A714" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B714">
         <v>2017</v>
@@ -67855,7 +68161,7 @@
     </row>
     <row r="715" spans="1:29">
       <c r="A715" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B715">
         <v>2017</v>
@@ -67944,7 +68250,7 @@
     </row>
     <row r="716" spans="1:29">
       <c r="A716" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B716">
         <v>2017</v>
@@ -68033,7 +68339,7 @@
     </row>
     <row r="717" spans="1:29">
       <c r="A717" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B717">
         <v>2017</v>
@@ -68122,7 +68428,7 @@
     </row>
     <row r="718" spans="1:29">
       <c r="A718" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B718">
         <v>2017</v>
@@ -68211,7 +68517,7 @@
     </row>
     <row r="719" spans="1:29">
       <c r="A719" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B719">
         <v>2017</v>
@@ -68300,7 +68606,7 @@
     </row>
     <row r="720" spans="1:29">
       <c r="A720" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B720">
         <v>2017</v>
@@ -68389,7 +68695,7 @@
     </row>
     <row r="721" spans="1:29">
       <c r="A721" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B721">
         <v>2017</v>
@@ -68478,7 +68784,7 @@
     </row>
     <row r="722" spans="1:29">
       <c r="A722" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B722">
         <v>2017</v>
@@ -68567,7 +68873,7 @@
     </row>
     <row r="723" spans="1:29">
       <c r="A723" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B723">
         <v>2017</v>
@@ -68656,7 +68962,7 @@
     </row>
     <row r="724" spans="1:29">
       <c r="A724" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B724">
         <v>2017</v>
@@ -68745,7 +69051,7 @@
     </row>
     <row r="725" spans="1:29">
       <c r="A725" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B725">
         <v>2017</v>
@@ -68834,7 +69140,7 @@
     </row>
     <row r="726" spans="1:29">
       <c r="A726" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B726">
         <v>2017</v>
@@ -68923,7 +69229,7 @@
     </row>
     <row r="727" spans="1:29">
       <c r="A727" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B727">
         <v>2017</v>
@@ -69012,7 +69318,7 @@
     </row>
     <row r="728" spans="1:29">
       <c r="A728" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B728">
         <v>2017</v>
@@ -69101,7 +69407,7 @@
     </row>
     <row r="729" spans="1:29">
       <c r="A729" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B729">
         <v>2017</v>
@@ -69190,7 +69496,7 @@
     </row>
     <row r="730" spans="1:29">
       <c r="A730" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B730">
         <v>2017</v>
@@ -69279,7 +69585,7 @@
     </row>
     <row r="731" spans="1:29">
       <c r="A731" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B731">
         <v>2017</v>
@@ -69368,7 +69674,7 @@
     </row>
     <row r="732" spans="1:29">
       <c r="A732" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B732">
         <v>2017</v>
@@ -69457,7 +69763,7 @@
     </row>
     <row r="733" spans="1:29">
       <c r="A733" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B733">
         <v>2017</v>
@@ -69546,7 +69852,7 @@
     </row>
     <row r="734" spans="1:29">
       <c r="A734" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B734">
         <v>2017</v>
@@ -69635,7 +69941,7 @@
     </row>
     <row r="735" spans="1:29">
       <c r="A735" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B735">
         <v>2017</v>
@@ -69724,7 +70030,7 @@
     </row>
     <row r="736" spans="1:29">
       <c r="A736" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B736">
         <v>2017</v>
@@ -69813,7 +70119,7 @@
     </row>
     <row r="737" spans="1:29">
       <c r="A737" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B737">
         <v>2017</v>
@@ -69902,7 +70208,7 @@
     </row>
     <row r="738" spans="1:29">
       <c r="A738" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B738">
         <v>2017</v>
@@ -69991,7 +70297,7 @@
     </row>
     <row r="739" spans="1:29">
       <c r="A739" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B739">
         <v>2017</v>
@@ -70080,7 +70386,7 @@
     </row>
     <row r="740" spans="1:29">
       <c r="A740" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B740">
         <v>2017</v>
@@ -70169,7 +70475,7 @@
     </row>
     <row r="741" spans="1:29">
       <c r="A741" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B741">
         <v>2017</v>
@@ -70258,7 +70564,7 @@
     </row>
     <row r="742" spans="1:29">
       <c r="A742" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B742">
         <v>2017</v>
@@ -70347,7 +70653,7 @@
     </row>
     <row r="743" spans="1:29">
       <c r="A743" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B743">
         <v>2017</v>
@@ -70436,7 +70742,7 @@
     </row>
     <row r="744" spans="1:29">
       <c r="A744" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B744">
         <v>2017</v>
@@ -70525,7 +70831,7 @@
     </row>
     <row r="745" spans="1:29">
       <c r="A745" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B745">
         <v>2017</v>
@@ -70614,7 +70920,7 @@
     </row>
     <row r="746" spans="1:29">
       <c r="A746" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B746">
         <v>2017</v>
@@ -70703,7 +71009,7 @@
     </row>
     <row r="747" spans="1:29">
       <c r="A747" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B747">
         <v>2017</v>
@@ -70792,7 +71098,7 @@
     </row>
     <row r="748" spans="1:29">
       <c r="A748" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B748">
         <v>2017</v>
@@ -70881,7 +71187,7 @@
     </row>
     <row r="749" spans="1:29">
       <c r="A749" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B749">
         <v>2017</v>
@@ -70970,7 +71276,7 @@
     </row>
     <row r="750" spans="1:29">
       <c r="A750" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B750">
         <v>2017</v>
@@ -71059,7 +71365,7 @@
     </row>
     <row r="751" spans="1:29">
       <c r="A751" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B751">
         <v>2017</v>
@@ -71148,7 +71454,7 @@
     </row>
     <row r="752" spans="1:29">
       <c r="A752" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B752">
         <v>2017</v>
@@ -71237,7 +71543,7 @@
     </row>
     <row r="753" spans="1:29">
       <c r="A753" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B753">
         <v>2017</v>
@@ -71326,7 +71632,7 @@
     </row>
     <row r="754" spans="1:29">
       <c r="A754" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B754">
         <v>2017</v>
@@ -71415,7 +71721,7 @@
     </row>
     <row r="755" spans="1:29">
       <c r="A755" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B755">
         <v>2017</v>
@@ -71504,7 +71810,7 @@
     </row>
     <row r="756" spans="1:29">
       <c r="A756" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B756">
         <v>2017</v>
@@ -71593,7 +71899,7 @@
     </row>
     <row r="757" spans="1:29">
       <c r="A757" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B757">
         <v>2017</v>
@@ -71682,7 +71988,7 @@
     </row>
     <row r="758" spans="1:29">
       <c r="A758" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B758">
         <v>2017</v>
@@ -71771,7 +72077,7 @@
     </row>
     <row r="759" spans="1:29">
       <c r="A759" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B759">
         <v>2017</v>
@@ -71860,7 +72166,7 @@
     </row>
     <row r="760" spans="1:29">
       <c r="A760" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B760">
         <v>2017</v>
@@ -71949,7 +72255,7 @@
     </row>
     <row r="761" spans="1:29">
       <c r="A761" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B761">
         <v>2017</v>
@@ -72038,7 +72344,7 @@
     </row>
     <row r="762" spans="1:29">
       <c r="A762" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B762">
         <v>2017</v>
@@ -72127,7 +72433,7 @@
     </row>
     <row r="763" spans="1:29">
       <c r="A763" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B763">
         <v>2017</v>
@@ -72216,7 +72522,7 @@
     </row>
     <row r="764" spans="1:29">
       <c r="A764" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B764">
         <v>2017</v>
@@ -72305,7 +72611,7 @@
     </row>
     <row r="765" spans="1:29">
       <c r="A765" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B765">
         <v>2017</v>
@@ -72394,7 +72700,7 @@
     </row>
     <row r="766" spans="1:29">
       <c r="A766" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B766">
         <v>2017</v>
@@ -72483,7 +72789,7 @@
     </row>
     <row r="767" spans="1:29">
       <c r="A767" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B767">
         <v>2017</v>
@@ -72572,7 +72878,7 @@
     </row>
     <row r="768" spans="1:29">
       <c r="A768" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B768">
         <v>2017</v>
@@ -72661,7 +72967,7 @@
     </row>
     <row r="769" spans="1:29">
       <c r="A769" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B769">
         <v>2017</v>
@@ -72750,7 +73056,7 @@
     </row>
     <row r="770" spans="1:29">
       <c r="A770" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B770">
         <v>2017</v>
@@ -72839,7 +73145,7 @@
     </row>
     <row r="771" spans="1:29">
       <c r="A771" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B771">
         <v>2017</v>
@@ -72928,7 +73234,7 @@
     </row>
     <row r="772" spans="1:29">
       <c r="A772" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B772">
         <v>2017</v>
@@ -73017,7 +73323,7 @@
     </row>
     <row r="773" spans="1:29">
       <c r="A773" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B773">
         <v>2017</v>
@@ -73106,7 +73412,7 @@
     </row>
     <row r="774" spans="1:29">
       <c r="A774" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B774">
         <v>2017</v>
@@ -73195,7 +73501,7 @@
     </row>
     <row r="775" spans="1:29">
       <c r="A775" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B775">
         <v>2017</v>
@@ -73284,7 +73590,7 @@
     </row>
     <row r="776" spans="1:29">
       <c r="A776" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B776">
         <v>2017</v>
@@ -73373,7 +73679,7 @@
     </row>
     <row r="777" spans="1:29">
       <c r="A777" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B777">
         <v>2017</v>
@@ -73462,7 +73768,7 @@
     </row>
     <row r="778" spans="1:29">
       <c r="A778" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B778">
         <v>2017</v>
@@ -73551,7 +73857,7 @@
     </row>
     <row r="779" spans="1:29">
       <c r="A779" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B779">
         <v>2017</v>
@@ -73640,7 +73946,7 @@
     </row>
     <row r="780" spans="1:29">
       <c r="A780" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B780">
         <v>2017</v>
@@ -73729,7 +74035,7 @@
     </row>
     <row r="781" spans="1:29">
       <c r="A781" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B781">
         <v>2017</v>
@@ -73818,7 +74124,7 @@
     </row>
     <row r="782" spans="1:29">
       <c r="A782" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B782">
         <v>2017</v>
@@ -73907,7 +74213,7 @@
     </row>
     <row r="783" spans="1:29">
       <c r="A783" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B783">
         <v>2017</v>
@@ -73996,7 +74302,7 @@
     </row>
     <row r="784" spans="1:29">
       <c r="A784" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B784">
         <v>2017</v>
@@ -74085,7 +74391,7 @@
     </row>
     <row r="785" spans="1:29">
       <c r="A785" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B785">
         <v>2017</v>
@@ -74174,7 +74480,7 @@
     </row>
     <row r="786" spans="1:29">
       <c r="A786" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B786">
         <v>2017</v>
@@ -74263,7 +74569,7 @@
     </row>
     <row r="787" spans="1:29">
       <c r="A787" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B787">
         <v>2017</v>
@@ -74352,7 +74658,7 @@
     </row>
     <row r="788" spans="1:29">
       <c r="A788" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B788">
         <v>2017</v>
@@ -74441,7 +74747,7 @@
     </row>
     <row r="789" spans="1:29">
       <c r="A789" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B789">
         <v>2017</v>
@@ -74530,7 +74836,7 @@
     </row>
     <row r="790" spans="1:29">
       <c r="A790" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B790">
         <v>2017</v>
@@ -74619,7 +74925,7 @@
     </row>
     <row r="791" spans="1:29">
       <c r="A791" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B791">
         <v>2017</v>
@@ -74708,7 +75014,7 @@
     </row>
     <row r="792" spans="1:29">
       <c r="A792" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B792">
         <v>2017</v>
@@ -74797,7 +75103,7 @@
     </row>
     <row r="793" spans="1:29">
       <c r="A793" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B793">
         <v>2017</v>
